--- a/prophet_feedback.xlsx
+++ b/prophet_feedback.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,93 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>changepoint_prior_scale</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>seasonality_prior_scale</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>holidays_prior_scale</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE_Mean</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE_P70</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE_P80</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE_P90</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Total Tests</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>B0BZQ1TNW8</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>48.84094081812921</v>
-      </c>
-      <c r="F2" t="n">
-        <v>34.84698695726792</v>
-      </c>
-      <c r="G2" t="n">
-        <v>41.31131806176123</v>
-      </c>
-      <c r="H2" t="n">
-        <v>87.19554174383001</v>
-      </c>
-      <c r="I2" t="n">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/prophet_feedback.xlsx
+++ b/prophet_feedback.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,93 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>changepoint_prior_scale</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>seasonality_prior_scale</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>holidays_prior_scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_Mean</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_P70</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_P80</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_P90</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Total Tests</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>B0BZQ1TNW8</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>48.84094081812921</v>
+      </c>
+      <c r="F2" t="n">
+        <v>34.84698695726792</v>
+      </c>
+      <c r="G2" t="n">
+        <v>41.31131806176123</v>
+      </c>
+      <c r="H2" t="n">
+        <v>87.19554174383001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/prophet_feedback.xlsx
+++ b/prophet_feedback.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,93 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>changepoint_prior_scale</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>seasonality_prior_scale</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>holidays_prior_scale</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE_Mean</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE_P70</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE_P80</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE_P90</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Total Tests</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>B0BZQ1TNW8</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>48.84094081812921</v>
-      </c>
-      <c r="F2" t="n">
-        <v>34.84698695726792</v>
-      </c>
-      <c r="G2" t="n">
-        <v>41.31131806176123</v>
-      </c>
-      <c r="H2" t="n">
-        <v>87.19554174383001</v>
-      </c>
-      <c r="I2" t="n">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/prophet_feedback.xlsx
+++ b/prophet_feedback.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,186 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>changepoint_prior_scale</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>seasonality_prior_scale</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>holidays_prior_scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_Mean</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_P70</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_P80</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_P90</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Total Tests</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>B07GBM3M88</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.29128784747792</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.6393596310755</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7905694150420949</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.732050807568877</v>
+      </c>
+      <c r="I2" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B07FWVJSHC</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.903943276465977</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.381937314617171</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B09J6BWK2Z</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.410912690248239</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.837117307087384</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.00780488547035</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.988272654335229</v>
+      </c>
+      <c r="I4" t="n">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B0D8WH9NG3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>21.77584671143696</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14.8891739193281</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.45227248018344</v>
+      </c>
+      <c r="H5" t="n">
+        <v>18.45772196128222</v>
+      </c>
+      <c r="I5" t="n">
+        <v>504</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/prophet_feedback.xlsx
+++ b/prophet_feedback.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B07GBM3M88</t>
+          <t>B09L9DY4L1</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -496,16 +496,16 @@
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>2.29128784747792</v>
+        <v>3.051638903933426</v>
       </c>
       <c r="F2" t="n">
-        <v>1.6393596310755</v>
+        <v>3.766629793329841</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7905694150420949</v>
+        <v>1.19895788082818</v>
       </c>
       <c r="H2" t="n">
-        <v>1.732050807568877</v>
+        <v>5.018714974971183</v>
       </c>
       <c r="I2" t="n">
         <v>126</v>
@@ -514,29 +514,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B07FWVJSHC</t>
+          <t>B08KGVH7YC</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>2.25</v>
+        <v>53.21418983692226</v>
       </c>
       <c r="F3" t="n">
-        <v>1.903943276465977</v>
+        <v>30.46924679082172</v>
       </c>
       <c r="G3" t="n">
-        <v>3.381937314617171</v>
+        <v>22.24438131304173</v>
       </c>
       <c r="H3" t="n">
-        <v>7.25</v>
+        <v>63.07336997497438</v>
       </c>
       <c r="I3" t="n">
         <v>252</v>
@@ -545,29 +545,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B09J6BWK2Z</t>
+          <t>B09JZFT4SN</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0.05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D4" t="n">
         <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>2.410912690248239</v>
+        <v>1.118033988749895</v>
       </c>
       <c r="F4" t="n">
-        <v>1.837117307087384</v>
+        <v>1.620185174601965</v>
       </c>
       <c r="G4" t="n">
-        <v>4.00780488547035</v>
+        <v>3.984344362627307</v>
       </c>
       <c r="H4" t="n">
-        <v>7.988272654335229</v>
+        <v>8.038967595406763</v>
       </c>
       <c r="I4" t="n">
         <v>378</v>
@@ -576,32 +576,2946 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B0D8WH9NG3</t>
+          <t>B09JZGTYXJ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>21.77584671143696</v>
+        <v>1.224744871391589</v>
       </c>
       <c r="F5" t="n">
-        <v>14.8891739193281</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>10.45227248018344</v>
+        <v>2.331844763272204</v>
       </c>
       <c r="H5" t="n">
-        <v>18.45772196128222</v>
+        <v>4.493050188902857</v>
       </c>
       <c r="I5" t="n">
         <v>504</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B07T6N8N56</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>26.85027932815597</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20.78460969082653</v>
+      </c>
+      <c r="G7" t="n">
+        <v>29.38962401937119</v>
+      </c>
+      <c r="H7" t="n">
+        <v>58.69944633469723</v>
+      </c>
+      <c r="I7" t="n">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B0BH6XND27</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>28.27653620937331</v>
+      </c>
+      <c r="F8" t="n">
+        <v>18.7533330370897</v>
+      </c>
+      <c r="G8" t="n">
+        <v>29.0215437218629</v>
+      </c>
+      <c r="H8" t="n">
+        <v>61.87184335382291</v>
+      </c>
+      <c r="I8" t="n">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.633913438213185</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.6583123951777</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.015564437074637</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.018714974971183</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B08LGKGBKT</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>61.30762595305742</v>
+      </c>
+      <c r="F10" t="n">
+        <v>61.30456752967107</v>
+      </c>
+      <c r="G10" t="n">
+        <v>70.96918345310166</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100.7369718623704</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>B089FY7QT1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.072051431861127</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.069705149024927</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.322875655532295</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.682729965664059</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>B07GBM3M88</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.29128784747792</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.6393596310755</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.7905694150420949</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.732050807568877</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>101.8562099235977</v>
+      </c>
+      <c r="F13" t="n">
+        <v>72.27464977431575</v>
+      </c>
+      <c r="G13" t="n">
+        <v>80.2869852466762</v>
+      </c>
+      <c r="H13" t="n">
+        <v>129.5825026768661</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>B07VNBC5PS</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.645794895318107</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8.692669325356855</v>
+      </c>
+      <c r="G14" t="n">
+        <v>15.63449711375457</v>
+      </c>
+      <c r="H14" t="n">
+        <v>27.95196773037634</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.244997998398398</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7.154544010627093</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10.72089082119578</v>
+      </c>
+      <c r="H15" t="n">
+        <v>16.8800918243948</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>B083NN4MLZ</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>B0BH9BBLHB</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.089724735885168</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.436140661634507</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.708099243547831</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7.636262174650632</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B0BHTMXMRQ</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>24.6272207120495</v>
+      </c>
+      <c r="F18" t="n">
+        <v>18.10904470147445</v>
+      </c>
+      <c r="G18" t="n">
+        <v>13.6106575888162</v>
+      </c>
+      <c r="H18" t="n">
+        <v>20.62310597364034</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B07FWVJSHC</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.903943276465977</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.381937314617171</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D20" t="n">
+        <v>15</v>
+      </c>
+      <c r="E20" t="n">
+        <v>19.23538406167134</v>
+      </c>
+      <c r="F20" t="n">
+        <v>11.32475165290612</v>
+      </c>
+      <c r="G20" t="n">
+        <v>22</v>
+      </c>
+      <c r="H20" t="n">
+        <v>46.87016641745578</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B07FW85VFT</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.519202405202649</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7.241374178980119</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11.89537725337032</v>
+      </c>
+      <c r="H21" t="n">
+        <v>20.8836060104571</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>101.9006869456727</v>
+      </c>
+      <c r="F22" t="n">
+        <v>76.22335600063802</v>
+      </c>
+      <c r="G22" t="n">
+        <v>48.33929560926597</v>
+      </c>
+      <c r="H22" t="n">
+        <v>40.94050561485532</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>B09J5TC4F8</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.031128874149275</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" t="n">
+        <v>84.63672370785628</v>
+      </c>
+      <c r="F24" t="n">
+        <v>81.20537235922264</v>
+      </c>
+      <c r="G24" t="n">
+        <v>92.84866719560384</v>
+      </c>
+      <c r="H24" t="n">
+        <v>133.3086175008953</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B079NYQQJJ</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.24037034920393</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.549509756796392</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4.808846015417836</v>
+      </c>
+      <c r="H25" t="n">
+        <v>10.47019579568596</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>52.63019570550731</v>
+      </c>
+      <c r="F26" t="n">
+        <v>53.00235843809217</v>
+      </c>
+      <c r="G26" t="n">
+        <v>62.20128616033595</v>
+      </c>
+      <c r="H26" t="n">
+        <v>90.40499156573159</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B089FWWN62</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>40.59325682918285</v>
+      </c>
+      <c r="F27" t="n">
+        <v>33.86554296036017</v>
+      </c>
+      <c r="G27" t="n">
+        <v>26.71960890432343</v>
+      </c>
+      <c r="H27" t="n">
+        <v>25.52939482243949</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>B0BH9F7DKS</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>13.15294643796591</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10.71505949586842</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4.451123453691214</v>
+      </c>
+      <c r="H28" t="n">
+        <v>17.11541702676274</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B07WL5MFXL</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.23606797749979</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.391941090707505</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.02336923485777</v>
+      </c>
+      <c r="H29" t="n">
+        <v>9.127568131764342</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B0BSB6MB15</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>25.30563178424913</v>
+      </c>
+      <c r="F30" t="n">
+        <v>31.89925547720511</v>
+      </c>
+      <c r="G30" t="n">
+        <v>50.65631747373668</v>
+      </c>
+      <c r="H30" t="n">
+        <v>85.90874518929955</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>41.05255777658683</v>
+      </c>
+      <c r="F31" t="n">
+        <v>23.59157688667716</v>
+      </c>
+      <c r="G31" t="n">
+        <v>17.01469952717355</v>
+      </c>
+      <c r="H31" t="n">
+        <v>41.32190702278877</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>8.842369591913696</v>
+      </c>
+      <c r="F32" t="n">
+        <v>7.215434844830906</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4.380353866983808</v>
+      </c>
+      <c r="H32" t="n">
+        <v>18.22944047413414</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.3535533905932738</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.7905694150420949</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>B083GT6ZBX</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>B08BR1XDX5</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.645751311064591</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.802775637731995</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>10.85702537530423</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>B0BH79FMW3</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.512468905280222</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.5612494995996</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5.477225575051661</v>
+      </c>
+      <c r="H36" t="n">
+        <v>12.11919964354082</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>178.1326752732356</v>
+      </c>
+      <c r="F37" t="n">
+        <v>127.9328437110658</v>
+      </c>
+      <c r="G37" t="n">
+        <v>113.7079592640726</v>
+      </c>
+      <c r="H37" t="n">
+        <v>166.8225104714589</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B0BJ5SDGXK</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9354143466934853</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9354143466934853</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.5612494995996</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.761340254296815</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4662</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B0BSB4TYHV</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.91547594742265</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4.046603514059662</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3.112474899497183</v>
+      </c>
+      <c r="H39" t="n">
+        <v>9.766012492312305</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4788</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.3535533905932738</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.3535533905932738</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4914</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>8.845903006477066</v>
+      </c>
+      <c r="F41" t="n">
+        <v>11.6940155635265</v>
+      </c>
+      <c r="G41" t="n">
+        <v>18.3660692582817</v>
+      </c>
+      <c r="H41" t="n">
+        <v>30.17967030966376</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B0BSNYN4XQ</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>15.89614733197953</v>
+      </c>
+      <c r="F42" t="n">
+        <v>12.98316217259879</v>
+      </c>
+      <c r="G42" t="n">
+        <v>8.721381771256205</v>
+      </c>
+      <c r="H42" t="n">
+        <v>6.819090848492928</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5166</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B0BVWQ3BMJ</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.130677910464576</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4.038873605350878</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.727178028658928</v>
+      </c>
+      <c r="H43" t="n">
+        <v>13.05995788660898</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5292</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B0BSP61QZC</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>7.917543811056558</v>
+      </c>
+      <c r="F44" t="n">
+        <v>17.2590555940932</v>
+      </c>
+      <c r="G44" t="n">
+        <v>32.14128964431888</v>
+      </c>
+      <c r="H44" t="n">
+        <v>56.25777724012921</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5418</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B083R7SWF5</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.457737973711325</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.391941090707505</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.371708245126285</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4.841229182759271</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5544</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B09J6BWK2Z</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.410912690248239</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.837117307087384</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4.00780488547035</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7.988272654335229</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5670</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B0BTQ3SVFR</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>18.72331434335278</v>
+      </c>
+      <c r="F47" t="n">
+        <v>7.802243267163617</v>
+      </c>
+      <c r="G47" t="n">
+        <v>14.86396649619475</v>
+      </c>
+      <c r="H47" t="n">
+        <v>48.67430020041377</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5796</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>B0BTTZFQTP</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>51.234753829798</v>
+      </c>
+      <c r="F48" t="n">
+        <v>43.43889386252831</v>
+      </c>
+      <c r="G48" t="n">
+        <v>56.31496248777939</v>
+      </c>
+      <c r="H48" t="n">
+        <v>97.41310230148714</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5922</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>B0BVBXT6P1</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>26.63996058555643</v>
+      </c>
+      <c r="F49" t="n">
+        <v>17.22099009929453</v>
+      </c>
+      <c r="G49" t="n">
+        <v>9.676001240181813</v>
+      </c>
+      <c r="H49" t="n">
+        <v>18.3813764446518</v>
+      </c>
+      <c r="I49" t="n">
+        <v>6048</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>B083R7PHMX</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.952562418976663</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.837117307087384</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.947456530637899</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5.84700778176325</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6174</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B083R826VW</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>23.46273641330013</v>
+      </c>
+      <c r="F51" t="n">
+        <v>15.41914394510927</v>
+      </c>
+      <c r="G51" t="n">
+        <v>8.344159634139318</v>
+      </c>
+      <c r="H51" t="n">
+        <v>17.41945751164484</v>
+      </c>
+      <c r="I51" t="n">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>B0BSB6MZ2L</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>23.86027032537561</v>
+      </c>
+      <c r="F52" t="n">
+        <v>18.91428031937774</v>
+      </c>
+      <c r="G52" t="n">
+        <v>11.03970108290981</v>
+      </c>
+      <c r="H52" t="n">
+        <v>5.356071321407137</v>
+      </c>
+      <c r="I52" t="n">
+        <v>6426</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>B083R7T5P4</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.785357107135713</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.677050983124842</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2.936835031117683</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5.878988008152423</v>
+      </c>
+      <c r="I53" t="n">
+        <v>6552</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B0BZQ43XXL</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2.06155281280883</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.436140661634507</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.772634126602354</v>
+      </c>
+      <c r="H54" t="n">
+        <v>6.777720855862979</v>
+      </c>
+      <c r="I54" t="n">
+        <v>6678</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>B09J64TBJG</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.6393596310755</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.322875655532295</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H55" t="n">
+        <v>5.129571132170798</v>
+      </c>
+      <c r="I55" t="n">
+        <v>6804</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B0BYBHW4SH</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>256.8918790074922</v>
+      </c>
+      <c r="F56" t="n">
+        <v>231.8721361009123</v>
+      </c>
+      <c r="G56" t="n">
+        <v>201.1036735119476</v>
+      </c>
+      <c r="H56" t="n">
+        <v>152.8970241698641</v>
+      </c>
+      <c r="I56" t="n">
+        <v>6930</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B0BZ54DR5L</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>10.50892477849185</v>
+      </c>
+      <c r="F57" t="n">
+        <v>7.741931283601011</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3.913118960624632</v>
+      </c>
+      <c r="H57" t="n">
+        <v>8.112490369793976</v>
+      </c>
+      <c r="I57" t="n">
+        <v>7056</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B0C4CKCRYW</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" t="n">
+        <v>13.11964176340193</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10.57709790065309</v>
+      </c>
+      <c r="G58" t="n">
+        <v>5.958187643906492</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3.391164991562634</v>
+      </c>
+      <c r="I58" t="n">
+        <v>7182</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B0BZQ1PWGJ</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5</v>
+      </c>
+      <c r="E59" t="n">
+        <v>8.533024082938006</v>
+      </c>
+      <c r="F59" t="n">
+        <v>6.712860791048776</v>
+      </c>
+      <c r="G59" t="n">
+        <v>16.81145442845443</v>
+      </c>
+      <c r="H59" t="n">
+        <v>36.77974986320598</v>
+      </c>
+      <c r="I59" t="n">
+        <v>7308</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B0BZQ1TNW8</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>28.71084289950401</v>
+      </c>
+      <c r="F60" t="n">
+        <v>12.61942946412396</v>
+      </c>
+      <c r="G60" t="n">
+        <v>12.6935022747861</v>
+      </c>
+      <c r="H60" t="n">
+        <v>46.03599135459125</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7434</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.695582495781317</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.610076627227638</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.59687364248454</v>
+      </c>
+      <c r="I61" t="n">
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>B0C4CKFV65</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>15.90007861615785</v>
+      </c>
+      <c r="F62" t="n">
+        <v>12.06492851201365</v>
+      </c>
+      <c r="G62" t="n">
+        <v>9.480242612929271</v>
+      </c>
+      <c r="H62" t="n">
+        <v>14.41570324333849</v>
+      </c>
+      <c r="I62" t="n">
+        <v>7686</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>B0BZ17BQ4Z</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>6.600189391222043</v>
+      </c>
+      <c r="F63" t="n">
+        <v>6.34428877022476</v>
+      </c>
+      <c r="G63" t="n">
+        <v>4.373213921133975</v>
+      </c>
+      <c r="H63" t="n">
+        <v>17.1117649586476</v>
+      </c>
+      <c r="I63" t="n">
+        <v>7812</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>B0C4CB8G8D</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" t="n">
+        <v>6.06217782649107</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.076655965729519</v>
+      </c>
+      <c r="G64" t="n">
+        <v>6.675514961409345</v>
+      </c>
+      <c r="H64" t="n">
+        <v>17.36015552925722</v>
+      </c>
+      <c r="I64" t="n">
+        <v>7938</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" t="n">
+        <v>14.19066594631838</v>
+      </c>
+      <c r="F65" t="n">
+        <v>9.695359714832659</v>
+      </c>
+      <c r="G65" t="n">
+        <v>8.979142498033985</v>
+      </c>
+      <c r="H65" t="n">
+        <v>15.74603124599974</v>
+      </c>
+      <c r="I65" t="n">
+        <v>8064</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>B0C1ZZ57ZW</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4.636809247747852</v>
+      </c>
+      <c r="F66" t="n">
+        <v>5.958187643906492</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2.82842712474619</v>
+      </c>
+      <c r="H66" t="n">
+        <v>5.172040216394301</v>
+      </c>
+      <c r="I66" t="n">
+        <v>8190</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>B0CH92B3S2</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="n">
+        <v>19.06567596493762</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8.891709621889369</v>
+      </c>
+      <c r="G67" t="n">
+        <v>9.594920531197744</v>
+      </c>
+      <c r="H67" t="n">
+        <v>29.0269271539376</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8316</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>B083RW9KDM</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" t="n">
+        <v>10.49702338760851</v>
+      </c>
+      <c r="F68" t="n">
+        <v>16.19413474070165</v>
+      </c>
+      <c r="G68" t="n">
+        <v>24.09875515457178</v>
+      </c>
+      <c r="H68" t="n">
+        <v>37.14835124201342</v>
+      </c>
+      <c r="I68" t="n">
+        <v>8442</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>B083RW9TJF</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D69" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" t="n">
+        <v>31.64747225293041</v>
+      </c>
+      <c r="F69" t="n">
+        <v>25.33155147242269</v>
+      </c>
+      <c r="G69" t="n">
+        <v>17.6458210350213</v>
+      </c>
+      <c r="H69" t="n">
+        <v>10.31988372027515</v>
+      </c>
+      <c r="I69" t="n">
+        <v>8568</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" t="n">
+        <v>6.991065727054782</v>
+      </c>
+      <c r="F70" t="n">
+        <v>9.724325169388361</v>
+      </c>
+      <c r="G70" t="n">
+        <v>25.09482018265921</v>
+      </c>
+      <c r="H70" t="n">
+        <v>51.26889895443436</v>
+      </c>
+      <c r="I70" t="n">
+        <v>8694</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>B0CNR8Y29S</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>8.753570700005799</v>
+      </c>
+      <c r="F71" t="n">
+        <v>4.190763653560053</v>
+      </c>
+      <c r="G71" t="n">
+        <v>16.32865579280793</v>
+      </c>
+      <c r="H71" t="n">
+        <v>37.58822954064211</v>
+      </c>
+      <c r="I71" t="n">
+        <v>8820</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4</v>
+      </c>
+      <c r="D72" t="n">
+        <v>15</v>
+      </c>
+      <c r="E72" t="n">
+        <v>50.83674851915688</v>
+      </c>
+      <c r="F72" t="n">
+        <v>59.96717852292202</v>
+      </c>
+      <c r="G72" t="n">
+        <v>84.30154209740175</v>
+      </c>
+      <c r="H72" t="n">
+        <v>127.804293746337</v>
+      </c>
+      <c r="I72" t="n">
+        <v>8946</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>B0CKS6BMH7</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" t="n">
+        <v>13.03361039773707</v>
+      </c>
+      <c r="F73" t="n">
+        <v>9.246621004453464</v>
+      </c>
+      <c r="G73" t="n">
+        <v>9.503288904374106</v>
+      </c>
+      <c r="H73" t="n">
+        <v>23.55047770216137</v>
+      </c>
+      <c r="I73" t="n">
+        <v>9072</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>B083RVX2FQ</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" t="n">
+        <v>4.322904116447646</v>
+      </c>
+      <c r="F74" t="n">
+        <v>5.952940449895329</v>
+      </c>
+      <c r="G74" t="n">
+        <v>11.26110562955521</v>
+      </c>
+      <c r="H74" t="n">
+        <v>20.73041244162788</v>
+      </c>
+      <c r="I74" t="n">
+        <v>9198</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>199.444541163703</v>
+      </c>
+      <c r="F75" t="n">
+        <v>160.6936137498936</v>
+      </c>
+      <c r="G75" t="n">
+        <v>123.9899189450497</v>
+      </c>
+      <c r="H75" t="n">
+        <v>78.11809969526908</v>
+      </c>
+      <c r="I75" t="n">
+        <v>9324</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>B0CCWLMK56</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.6614378277661477</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.089724735885168</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2.263846284534354</v>
+      </c>
+      <c r="H76" t="n">
+        <v>4.444097208657794</v>
+      </c>
+      <c r="I76" t="n">
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>42.11071716321155</v>
+      </c>
+      <c r="F77" t="n">
+        <v>23.9269722280108</v>
+      </c>
+      <c r="G77" t="n">
+        <v>10.97155412874585</v>
+      </c>
+      <c r="H77" t="n">
+        <v>34.65544690232691</v>
+      </c>
+      <c r="I77" t="n">
+        <v>9576</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>B0CNR6L1DH</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5</v>
+      </c>
+      <c r="E78" t="n">
+        <v>15.46972850440498</v>
+      </c>
+      <c r="F78" t="n">
+        <v>10.74709263010234</v>
+      </c>
+      <c r="G78" t="n">
+        <v>6.113509630318742</v>
+      </c>
+      <c r="H78" t="n">
+        <v>10.51487042240655</v>
+      </c>
+      <c r="I78" t="n">
+        <v>9702</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>B0D2V2FPS7</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>12.55239021063319</v>
+      </c>
+      <c r="F79" t="n">
+        <v>8.562271894771854</v>
+      </c>
+      <c r="G79" t="n">
+        <v>3.992179855667828</v>
+      </c>
+      <c r="H79" t="n">
+        <v>6.373774391990981</v>
+      </c>
+      <c r="I79" t="n">
+        <v>9828</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>B0D8WH9NG3</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5</v>
+      </c>
+      <c r="E80" t="n">
+        <v>21.77584671143696</v>
+      </c>
+      <c r="F80" t="n">
+        <v>14.8891739193281</v>
+      </c>
+      <c r="G80" t="n">
+        <v>10.45227248018344</v>
+      </c>
+      <c r="H80" t="n">
+        <v>18.45772196128222</v>
+      </c>
+      <c r="I80" t="n">
+        <v>9954</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D81" t="n">
+        <v>5</v>
+      </c>
+      <c r="E81" t="n">
+        <v>180.6775442604863</v>
+      </c>
+      <c r="F81" t="n">
+        <v>203.1944881142203</v>
+      </c>
+      <c r="G81" t="n">
+        <v>270.8089732634427</v>
+      </c>
+      <c r="H81" t="n">
+        <v>418.3086480100549</v>
+      </c>
+      <c r="I81" t="n">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>B0CTTY491F</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4.16082924427331</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4.506939094329987</v>
+      </c>
+      <c r="G82" t="n">
+        <v>8.429857650043683</v>
+      </c>
+      <c r="H82" t="n">
+        <v>28.40114434314223</v>
+      </c>
+      <c r="I82" t="n">
+        <v>10206</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>B0CTNYTX8Y</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>5</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.785357107135713</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2.82842712474619</v>
+      </c>
+      <c r="G83" t="n">
+        <v>4.242640687119285</v>
+      </c>
+      <c r="H83" t="n">
+        <v>7.071067811865476</v>
+      </c>
+      <c r="I83" t="n">
+        <v>10332</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>B0CTNXBRJV</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5</v>
+      </c>
+      <c r="E84" t="n">
+        <v>19.20774583338711</v>
+      </c>
+      <c r="F84" t="n">
+        <v>11.4455231422596</v>
+      </c>
+      <c r="G84" t="n">
+        <v>7.224091638399945</v>
+      </c>
+      <c r="H84" t="n">
+        <v>21.44906757880165</v>
+      </c>
+      <c r="I84" t="n">
+        <v>10458</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>B083SJLWL9</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5</v>
+      </c>
+      <c r="E85" t="n">
+        <v>17.38533865071371</v>
+      </c>
+      <c r="F85" t="n">
+        <v>22.42487458158908</v>
+      </c>
+      <c r="G85" t="n">
+        <v>34.00918993448683</v>
+      </c>
+      <c r="H85" t="n">
+        <v>55.97990710960496</v>
+      </c>
+      <c r="I85" t="n">
+        <v>10584</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D86" t="n">
+        <v>5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.4330127018922193</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2.549509756796392</v>
+      </c>
+      <c r="I86" t="n">
+        <v>10710</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B0CTTXH95Q</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>32.13642792844283</v>
+      </c>
+      <c r="F87" t="n">
+        <v>33.13325368870374</v>
+      </c>
+      <c r="G87" t="n">
+        <v>22.6039266500314</v>
+      </c>
+      <c r="H87" t="n">
+        <v>4.430011286667337</v>
+      </c>
+      <c r="I87" t="n">
+        <v>10836</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5</v>
+      </c>
+      <c r="E88" t="n">
+        <v>59.09737726836953</v>
+      </c>
+      <c r="F88" t="n">
+        <v>44.87552228108326</v>
+      </c>
+      <c r="G88" t="n">
+        <v>45.82712079107742</v>
+      </c>
+      <c r="H88" t="n">
+        <v>82.37262894918433</v>
+      </c>
+      <c r="I88" t="n">
+        <v>10962</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>B0CTTW2MVG</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3.579455265819088</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4.394598957811737</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5.926634795564849</v>
+      </c>
+      <c r="H89" t="n">
+        <v>8.219641111386798</v>
+      </c>
+      <c r="I89" t="n">
+        <v>11088</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>B0CTTWZCVK</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.369306393762915</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.82915619758885</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1.274754878398196</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3.588175023601831</v>
+      </c>
+      <c r="I90" t="n">
+        <v>11214</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>B0D54QJ9CJ</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5</v>
+      </c>
+      <c r="E91" t="n">
+        <v>170.6128658689022</v>
+      </c>
+      <c r="F91" t="n">
+        <v>152.324899474774</v>
+      </c>
+      <c r="G91" t="n">
+        <v>132.4537655183876</v>
+      </c>
+      <c r="H91" t="n">
+        <v>101.2774654106233</v>
+      </c>
+      <c r="I91" t="n">
+        <v>11340</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>B0D33M6CB7</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>12.56483187312906</v>
+      </c>
+      <c r="F92" t="n">
+        <v>4.630064794363034</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5.018714974971183</v>
+      </c>
+      <c r="H92" t="n">
+        <v>17.89902231966875</v>
+      </c>
+      <c r="I92" t="n">
+        <v>11466</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D93" t="n">
+        <v>5</v>
+      </c>
+      <c r="E93" t="n">
+        <v>5.733672470589857</v>
+      </c>
+      <c r="F93" t="n">
+        <v>10.54751155486449</v>
+      </c>
+      <c r="G93" t="n">
+        <v>17.84656829757475</v>
+      </c>
+      <c r="H93" t="n">
+        <v>30.58185736674606</v>
+      </c>
+      <c r="I93" t="n">
+        <v>11592</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5</v>
+      </c>
+      <c r="E94" t="n">
+        <v>25.4644359843292</v>
+      </c>
+      <c r="F94" t="n">
+        <v>19.78635893740938</v>
+      </c>
+      <c r="G94" t="n">
+        <v>12.21679172287062</v>
+      </c>
+      <c r="H94" t="n">
+        <v>5.232112384114087</v>
+      </c>
+      <c r="I94" t="n">
+        <v>11718</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>B0CTTWH6TD</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4.710360920354193</v>
+      </c>
+      <c r="F95" t="n">
+        <v>5.963430220938282</v>
+      </c>
+      <c r="G95" t="n">
+        <v>7.897784499465657</v>
+      </c>
+      <c r="H95" t="n">
+        <v>10.86565690605036</v>
+      </c>
+      <c r="I95" t="n">
+        <v>11844</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5</v>
+      </c>
+      <c r="E96" t="n">
+        <v>37.50833240761311</v>
+      </c>
+      <c r="F96" t="n">
+        <v>25.85536694769579</v>
+      </c>
+      <c r="G96" t="n">
+        <v>11.60549438843516</v>
+      </c>
+      <c r="H96" t="n">
+        <v>18.4000679346572</v>
+      </c>
+      <c r="I96" t="n">
+        <v>11970</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C97" t="n">
+        <v>3</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" t="n">
+        <v>43.10452412450461</v>
+      </c>
+      <c r="F97" t="n">
+        <v>44.0489784217523</v>
+      </c>
+      <c r="G97" t="n">
+        <v>39.12160528403711</v>
+      </c>
+      <c r="H97" t="n">
+        <v>37.36475612124345</v>
+      </c>
+      <c r="I97" t="n">
+        <v>12096</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>5</v>
+      </c>
+      <c r="E98" t="n">
+        <v>43.55025832299965</v>
+      </c>
+      <c r="F98" t="n">
+        <v>32.3873046115295</v>
+      </c>
+      <c r="G98" t="n">
+        <v>30.66145789097446</v>
+      </c>
+      <c r="H98" t="n">
+        <v>54.32655888237355</v>
+      </c>
+      <c r="I98" t="n">
+        <v>12222</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>B0D2PK3CC1</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D99" t="n">
+        <v>10</v>
+      </c>
+      <c r="E99" t="n">
+        <v>6.098155458825234</v>
+      </c>
+      <c r="F99" t="n">
+        <v>6.670832032063167</v>
+      </c>
+      <c r="G99" t="n">
+        <v>16.23460809505422</v>
+      </c>
+      <c r="H99" t="n">
+        <v>32.77003204148571</v>
+      </c>
+      <c r="I99" t="n">
+        <v>12348</v>
       </c>
     </row>
   </sheetData>

--- a/prophet_feedback.xlsx
+++ b/prophet_feedback.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,1929 +456,1441 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Total Tests</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>RMSE_Mean</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>RMSE_P70</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>RMSE_P80</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>RMSE_P90</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Total Tests</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B09L9DY4L1</t>
+          <t>B08F7BHDLY</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>3.051638903933426</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.766629793329841</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.19895788082818</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5.018714974971183</v>
-      </c>
-      <c r="I2" t="n">
         <v>126</v>
       </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B08KGVH7YC</t>
+          <t>B07FW85VFT</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0.1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>53.21418983692226</v>
-      </c>
-      <c r="F3" t="n">
-        <v>30.46924679082172</v>
-      </c>
-      <c r="G3" t="n">
-        <v>22.24438131304173</v>
-      </c>
-      <c r="H3" t="n">
-        <v>63.07336997497438</v>
-      </c>
-      <c r="I3" t="n">
         <v>252</v>
       </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B09JZFT4SN</t>
+          <t>B08B7ZX8Q2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>1.118033988749895</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.620185174601965</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3.984344362627307</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8.038967595406763</v>
-      </c>
-      <c r="I4" t="n">
         <v>378</v>
       </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B09JZGTYXJ</t>
+          <t>B09J5TC4F8</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>1.224744871391589</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.331844763272204</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.493050188902857</v>
-      </c>
-      <c r="I5" t="n">
         <v>504</v>
       </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>B07T6N8N56</t>
+          <t>B0BH9DXY38</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
         <v>630</v>
       </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>B08R5736B3</t>
+          <t>B079NYQQJJ</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>26.85027932815597</v>
-      </c>
-      <c r="F7" t="n">
-        <v>20.78460969082653</v>
-      </c>
-      <c r="G7" t="n">
-        <v>29.38962401937119</v>
-      </c>
-      <c r="H7" t="n">
-        <v>58.69944633469723</v>
-      </c>
-      <c r="I7" t="n">
         <v>756</v>
       </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>B0BH6XND27</t>
+          <t>B08F7HPJ4F</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0.1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>28.27653620937331</v>
-      </c>
-      <c r="F8" t="n">
-        <v>18.7533330370897</v>
-      </c>
-      <c r="G8" t="n">
-        <v>29.0215437218629</v>
-      </c>
-      <c r="H8" t="n">
-        <v>61.87184335382291</v>
-      </c>
-      <c r="I8" t="n">
         <v>882</v>
       </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>B083NK82QJ</t>
+          <t>B089FWWN62</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>2.633913438213185</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.6583123951777</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.015564437074637</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5.018714974971183</v>
-      </c>
-      <c r="I9" t="n">
         <v>1008</v>
       </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>B08LGKGBKT</t>
+          <t>B0BH9F7DKS</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0.1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>61.30762595305742</v>
-      </c>
-      <c r="F10" t="n">
-        <v>61.30456752967107</v>
-      </c>
-      <c r="G10" t="n">
-        <v>70.96918345310166</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100.7369718623704</v>
-      </c>
-      <c r="I10" t="n">
         <v>1134</v>
       </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>B089FY7QT1</t>
+          <t>B0BSB6MB15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>3.072051431861127</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4.069705149024927</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.322875655532295</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.682729965664059</v>
-      </c>
-      <c r="I11" t="n">
         <v>1260</v>
       </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>B07GBM3M88</t>
+          <t>B0BF7FT26Z</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>2.29128784747792</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.6393596310755</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.7905694150420949</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.732050807568877</v>
-      </c>
-      <c r="I12" t="n">
         <v>1386</v>
       </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
+          <t>B0BF7CL99N</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0.1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>101.8562099235977</v>
-      </c>
-      <c r="F13" t="n">
-        <v>72.27464977431575</v>
-      </c>
-      <c r="G13" t="n">
-        <v>80.2869852466762</v>
-      </c>
-      <c r="H13" t="n">
-        <v>129.5825026768661</v>
-      </c>
-      <c r="I13" t="n">
         <v>1512</v>
       </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>B07VNBC5PS</t>
+          <t>B07HS59X7P</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>5.645794895318107</v>
-      </c>
-      <c r="F14" t="n">
-        <v>8.692669325356855</v>
-      </c>
-      <c r="G14" t="n">
-        <v>15.63449711375457</v>
-      </c>
-      <c r="H14" t="n">
-        <v>27.95196773037634</v>
-      </c>
-      <c r="I14" t="n">
         <v>1638</v>
       </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>B0BF73P6HY</t>
+          <t>B083GT6ZBX</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>6.244997998398398</v>
-      </c>
-      <c r="F15" t="n">
-        <v>7.154544010627093</v>
-      </c>
-      <c r="G15" t="n">
-        <v>10.72089082119578</v>
-      </c>
-      <c r="H15" t="n">
-        <v>16.8800918243948</v>
-      </c>
-      <c r="I15" t="n">
         <v>1764</v>
       </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>B083NN4MLZ</t>
+          <t>B08BR1XDX5</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
         <v>1890</v>
       </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>B0BH9BBLHB</t>
+          <t>B0BH79FMW3</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>1.089724735885168</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.436140661634507</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3.708099243547831</v>
-      </c>
-      <c r="H17" t="n">
-        <v>7.636262174650632</v>
-      </c>
-      <c r="I17" t="n">
         <v>2016</v>
       </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>B0BHTMXMRQ</t>
+          <t>B0BH7GTY9C</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>24.6272207120495</v>
-      </c>
-      <c r="F18" t="n">
-        <v>18.10904470147445</v>
-      </c>
-      <c r="G18" t="n">
-        <v>13.6106575888162</v>
-      </c>
-      <c r="H18" t="n">
-        <v>20.62310597364034</v>
-      </c>
-      <c r="I18" t="n">
         <v>2142</v>
       </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B07FWVJSHC</t>
+          <t>B0BJ5SDGXK</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.903943276465977</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3.381937314617171</v>
-      </c>
-      <c r="H19" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="I19" t="n">
         <v>2268</v>
       </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
+          <t>B0BSB4TYHV</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0.1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>19.23538406167134</v>
-      </c>
-      <c r="F20" t="n">
-        <v>11.32475165290612</v>
-      </c>
-      <c r="G20" t="n">
-        <v>22</v>
-      </c>
-      <c r="H20" t="n">
-        <v>46.87016641745578</v>
-      </c>
-      <c r="I20" t="n">
         <v>2394</v>
       </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>B07FW85VFT</t>
+          <t>B087GH5SK2</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>6.519202405202649</v>
-      </c>
-      <c r="F21" t="n">
-        <v>7.241374178980119</v>
-      </c>
-      <c r="G21" t="n">
-        <v>11.89537725337032</v>
-      </c>
-      <c r="H21" t="n">
-        <v>20.8836060104571</v>
-      </c>
-      <c r="I21" t="n">
         <v>2520</v>
       </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>B08B7ZX8Q2</t>
+          <t>B0BSVYXM5C</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>101.9006869456727</v>
-      </c>
-      <c r="F22" t="n">
-        <v>76.22335600063802</v>
-      </c>
-      <c r="G22" t="n">
-        <v>48.33929560926597</v>
-      </c>
-      <c r="H22" t="n">
-        <v>40.94050561485532</v>
-      </c>
-      <c r="I22" t="n">
         <v>2646</v>
       </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>B09J5TC4F8</t>
+          <t>B0BSNYN4XQ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C23" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23" t="n">
-        <v>4.031128874149275</v>
-      </c>
-      <c r="I23" t="n">
         <v>2772</v>
       </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B0BVWQ3BMJ</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0.1</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>84.63672370785628</v>
-      </c>
-      <c r="F24" t="n">
-        <v>81.20537235922264</v>
-      </c>
-      <c r="G24" t="n">
-        <v>92.84866719560384</v>
-      </c>
-      <c r="H24" t="n">
-        <v>133.3086175008953</v>
-      </c>
-      <c r="I24" t="n">
         <v>2898</v>
       </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>B079NYQQJJ</t>
+          <t>B0BSP61QZC</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>3.24037034920393</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2.549509756796392</v>
-      </c>
-      <c r="G25" t="n">
-        <v>4.808846015417836</v>
-      </c>
-      <c r="H25" t="n">
-        <v>10.47019579568596</v>
-      </c>
-      <c r="I25" t="n">
         <v>3024</v>
       </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>B08F7HPJ4F</t>
+          <t>B083R7SWF5</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>52.63019570550731</v>
-      </c>
-      <c r="F26" t="n">
-        <v>53.00235843809217</v>
-      </c>
-      <c r="G26" t="n">
-        <v>62.20128616033595</v>
-      </c>
-      <c r="H26" t="n">
-        <v>90.40499156573159</v>
-      </c>
-      <c r="I26" t="n">
         <v>3150</v>
       </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>B089FWWN62</t>
+          <t>B0BTQ3SVFR</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>40.59325682918285</v>
-      </c>
-      <c r="F27" t="n">
-        <v>33.86554296036017</v>
-      </c>
-      <c r="G27" t="n">
-        <v>26.71960890432343</v>
-      </c>
-      <c r="H27" t="n">
-        <v>25.52939482243949</v>
-      </c>
-      <c r="I27" t="n">
         <v>3276</v>
       </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>B0BH9F7DKS</t>
+          <t>B0BTTZFQTP</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>13.15294643796591</v>
-      </c>
-      <c r="F28" t="n">
-        <v>10.71505949586842</v>
-      </c>
-      <c r="G28" t="n">
-        <v>4.451123453691214</v>
-      </c>
-      <c r="H28" t="n">
-        <v>17.11541702676274</v>
-      </c>
-      <c r="I28" t="n">
         <v>3402</v>
       </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>B07WL5MFXL</t>
+          <t>B0BVBXT6P1</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C29" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>2.23606797749979</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.391941090707505</v>
-      </c>
-      <c r="G29" t="n">
-        <v>4.02336923485777</v>
-      </c>
-      <c r="H29" t="n">
-        <v>9.127568131764342</v>
-      </c>
-      <c r="I29" t="n">
         <v>3528</v>
       </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>B0BSB6MB15</t>
+          <t>B083R7PHMX</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C30" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>25.30563178424913</v>
-      </c>
-      <c r="F30" t="n">
-        <v>31.89925547720511</v>
-      </c>
-      <c r="G30" t="n">
-        <v>50.65631747373668</v>
-      </c>
-      <c r="H30" t="n">
-        <v>85.90874518929955</v>
-      </c>
-      <c r="I30" t="n">
         <v>3654</v>
       </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>B0BF7FT26Z</t>
+          <t>B083R826VW</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>41.05255777658683</v>
-      </c>
-      <c r="F31" t="n">
-        <v>23.59157688667716</v>
-      </c>
-      <c r="G31" t="n">
-        <v>17.01469952717355</v>
-      </c>
-      <c r="H31" t="n">
-        <v>41.32190702278877</v>
-      </c>
-      <c r="I31" t="n">
         <v>3780</v>
       </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>B0BF7CL99N</t>
+          <t>B0BSB6MZ2L</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0.1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>8.842369591913696</v>
-      </c>
-      <c r="F32" t="n">
-        <v>7.215434844830906</v>
-      </c>
-      <c r="G32" t="n">
-        <v>4.380353866983808</v>
-      </c>
-      <c r="H32" t="n">
-        <v>18.22944047413414</v>
-      </c>
-      <c r="I32" t="n">
         <v>3906</v>
       </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>B07HS59X7P</t>
+          <t>B083R7T5P4</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C33" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.3535533905932738</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.7905694150420949</v>
-      </c>
-      <c r="I33" t="n">
         <v>4032</v>
       </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>B083GT6ZBX</t>
+          <t>B0BZQ43XXL</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
         <v>4158</v>
       </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>B08BR1XDX5</t>
+          <t>B09J64TBJG</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>2.645751311064591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1.802775637731995</v>
-      </c>
-      <c r="G35" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H35" t="n">
-        <v>10.85702537530423</v>
-      </c>
-      <c r="I35" t="n">
         <v>4284</v>
       </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>B0BH79FMW3</t>
+          <t>B0BYBHW4SH</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C36" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>2.512468905280222</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1.5612494995996</v>
-      </c>
-      <c r="G36" t="n">
-        <v>5.477225575051661</v>
-      </c>
-      <c r="H36" t="n">
-        <v>12.11919964354082</v>
-      </c>
-      <c r="I36" t="n">
         <v>4410</v>
       </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>B0BH7GTY9C</t>
+          <t>B0BZ54DR5L</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C37" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>178.1326752732356</v>
-      </c>
-      <c r="F37" t="n">
-        <v>127.9328437110658</v>
-      </c>
-      <c r="G37" t="n">
-        <v>113.7079592640726</v>
-      </c>
-      <c r="H37" t="n">
-        <v>166.8225104714589</v>
-      </c>
-      <c r="I37" t="n">
         <v>4536</v>
       </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>B0BJ5SDGXK</t>
+          <t>B0C4CKCRYW</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C38" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9354143466934853</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.9354143466934853</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1.5612494995996</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2.761340254296815</v>
-      </c>
-      <c r="I38" t="n">
         <v>4662</v>
       </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>B0BSB4TYHV</t>
+          <t>B0BZQ1PWGJ</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>2.91547594742265</v>
-      </c>
-      <c r="F39" t="n">
-        <v>4.046603514059662</v>
-      </c>
-      <c r="G39" t="n">
-        <v>3.112474899497183</v>
-      </c>
-      <c r="H39" t="n">
-        <v>9.766012492312305</v>
-      </c>
-      <c r="I39" t="n">
         <v>4788</v>
       </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>B087GH5SK2</t>
+          <t>B0BZQ1TNW8</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C40" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.3535533905932738</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.3535533905932738</v>
-      </c>
-      <c r="I40" t="n">
         <v>4914</v>
       </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>B0BSVYXM5C</t>
+          <t>B0C1M2BDNR</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0.1</v>
       </c>
       <c r="C41" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>8.845903006477066</v>
-      </c>
-      <c r="F41" t="n">
-        <v>11.6940155635265</v>
-      </c>
-      <c r="G41" t="n">
-        <v>18.3660692582817</v>
-      </c>
-      <c r="H41" t="n">
-        <v>30.17967030966376</v>
-      </c>
-      <c r="I41" t="n">
         <v>5040</v>
       </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>B0BSNYN4XQ</t>
+          <t>B0C4CKFV65</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0.1</v>
       </c>
       <c r="C42" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>15.89614733197953</v>
-      </c>
-      <c r="F42" t="n">
-        <v>12.98316217259879</v>
-      </c>
-      <c r="G42" t="n">
-        <v>8.721381771256205</v>
-      </c>
-      <c r="H42" t="n">
-        <v>6.819090848492928</v>
-      </c>
-      <c r="I42" t="n">
         <v>5166</v>
       </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>B0BVWQ3BMJ</t>
+          <t>B0BZ17BQ4Z</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0.1</v>
       </c>
       <c r="C43" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>4.130677910464576</v>
-      </c>
-      <c r="F43" t="n">
-        <v>4.038873605350878</v>
-      </c>
-      <c r="G43" t="n">
-        <v>2.727178028658928</v>
-      </c>
-      <c r="H43" t="n">
-        <v>13.05995788660898</v>
-      </c>
-      <c r="I43" t="n">
         <v>5292</v>
       </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>B0BSP61QZC</t>
+          <t>B0C4CB8G8D</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C44" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E44" t="n">
-        <v>7.917543811056558</v>
-      </c>
-      <c r="F44" t="n">
-        <v>17.2590555940932</v>
-      </c>
-      <c r="G44" t="n">
-        <v>32.14128964431888</v>
-      </c>
-      <c r="H44" t="n">
-        <v>56.25777724012921</v>
-      </c>
-      <c r="I44" t="n">
         <v>5418</v>
       </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>B083R7SWF5</t>
+          <t>B0BZQ416QM</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>1.457737973711325</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1.391941090707505</v>
-      </c>
-      <c r="G45" t="n">
-        <v>2.371708245126285</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4.841229182759271</v>
-      </c>
-      <c r="I45" t="n">
         <v>5544</v>
       </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>B09J6BWK2Z</t>
+          <t>B0C1ZZ57ZW</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E46" t="n">
-        <v>2.410912690248239</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1.837117307087384</v>
-      </c>
-      <c r="G46" t="n">
-        <v>4.00780488547035</v>
-      </c>
-      <c r="H46" t="n">
-        <v>7.988272654335229</v>
-      </c>
-      <c r="I46" t="n">
         <v>5670</v>
       </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>B0BTQ3SVFR</t>
+          <t>B0CH92B3S2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="C47" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>18.72331434335278</v>
-      </c>
-      <c r="F47" t="n">
-        <v>7.802243267163617</v>
-      </c>
-      <c r="G47" t="n">
-        <v>14.86396649619475</v>
-      </c>
-      <c r="H47" t="n">
-        <v>48.67430020041377</v>
-      </c>
-      <c r="I47" t="n">
         <v>5796</v>
       </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>B0BTTZFQTP</t>
+          <t>B083RW9KDM</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C48" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E48" t="n">
-        <v>51.234753829798</v>
-      </c>
-      <c r="F48" t="n">
-        <v>43.43889386252831</v>
-      </c>
-      <c r="G48" t="n">
-        <v>56.31496248777939</v>
-      </c>
-      <c r="H48" t="n">
-        <v>97.41310230148714</v>
-      </c>
-      <c r="I48" t="n">
         <v>5922</v>
       </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>B0BVBXT6P1</t>
+          <t>B083RW9TJF</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>0.1</v>
       </c>
       <c r="C49" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E49" t="n">
-        <v>26.63996058555643</v>
-      </c>
-      <c r="F49" t="n">
-        <v>17.22099009929453</v>
-      </c>
-      <c r="G49" t="n">
-        <v>9.676001240181813</v>
-      </c>
-      <c r="H49" t="n">
-        <v>18.3813764446518</v>
-      </c>
-      <c r="I49" t="n">
         <v>6048</v>
       </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>B083R7PHMX</t>
+          <t>B083RVN2VG</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C50" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E50" t="n">
-        <v>1.952562418976663</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1.837117307087384</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2.947456530637899</v>
-      </c>
-      <c r="H50" t="n">
-        <v>5.84700778176325</v>
-      </c>
-      <c r="I50" t="n">
         <v>6174</v>
       </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>B083R826VW</t>
+          <t>B0CNR8Y29S</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C51" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E51" t="n">
-        <v>23.46273641330013</v>
-      </c>
-      <c r="F51" t="n">
-        <v>15.41914394510927</v>
-      </c>
-      <c r="G51" t="n">
-        <v>8.344159634139318</v>
-      </c>
-      <c r="H51" t="n">
-        <v>17.41945751164484</v>
-      </c>
-      <c r="I51" t="n">
         <v>6300</v>
       </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>B0BSB6MZ2L</t>
+          <t>B0CN76TH9S</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>23.86027032537561</v>
-      </c>
-      <c r="F52" t="n">
-        <v>18.91428031937774</v>
-      </c>
-      <c r="G52" t="n">
-        <v>11.03970108290981</v>
-      </c>
-      <c r="H52" t="n">
-        <v>5.356071321407137</v>
-      </c>
-      <c r="I52" t="n">
         <v>6426</v>
       </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>B083R7T5P4</t>
+          <t>B0CKS6BMH7</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>1.785357107135713</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1.677050983124842</v>
-      </c>
-      <c r="G53" t="n">
-        <v>2.936835031117683</v>
-      </c>
-      <c r="H53" t="n">
-        <v>5.878988008152423</v>
-      </c>
-      <c r="I53" t="n">
         <v>6552</v>
       </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>B0BZQ43XXL</t>
+          <t>B083RVX2FQ</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C54" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E54" t="n">
-        <v>2.06155281280883</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1.436140661634507</v>
-      </c>
-      <c r="G54" t="n">
-        <v>2.772634126602354</v>
-      </c>
-      <c r="H54" t="n">
-        <v>6.777720855862979</v>
-      </c>
-      <c r="I54" t="n">
         <v>6678</v>
       </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>B09J64TBJG</t>
+          <t>B0CMJSH15D</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C55" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>1.6393596310755</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1.322875655532295</v>
-      </c>
-      <c r="G55" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="H55" t="n">
-        <v>5.129571132170798</v>
-      </c>
-      <c r="I55" t="n">
         <v>6804</v>
       </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>B0BYBHW4SH</t>
+          <t>B0CCWLMK56</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C56" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>256.8918790074922</v>
-      </c>
-      <c r="F56" t="n">
-        <v>231.8721361009123</v>
-      </c>
-      <c r="G56" t="n">
-        <v>201.1036735119476</v>
-      </c>
-      <c r="H56" t="n">
-        <v>152.8970241698641</v>
-      </c>
-      <c r="I56" t="n">
         <v>6930</v>
       </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>B0BZ54DR5L</t>
+          <t>B0CMK1W2YX</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0.1</v>
       </c>
       <c r="C57" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>10.50892477849185</v>
-      </c>
-      <c r="F57" t="n">
-        <v>7.741931283601011</v>
-      </c>
-      <c r="G57" t="n">
-        <v>3.913118960624632</v>
-      </c>
-      <c r="H57" t="n">
-        <v>8.112490369793976</v>
-      </c>
-      <c r="I57" t="n">
         <v>7056</v>
       </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>B0C4CKCRYW</t>
+          <t>B0CNR6L1DH</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>13.11964176340193</v>
-      </c>
-      <c r="F58" t="n">
-        <v>10.57709790065309</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5.958187643906492</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3.391164991562634</v>
-      </c>
-      <c r="I58" t="n">
         <v>7182</v>
       </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>B0BZQ1PWGJ</t>
+          <t>B0D2V2FPS7</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C59" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>8.533024082938006</v>
-      </c>
-      <c r="F59" t="n">
-        <v>6.712860791048776</v>
-      </c>
-      <c r="G59" t="n">
-        <v>16.81145442845443</v>
-      </c>
-      <c r="H59" t="n">
-        <v>36.77974986320598</v>
-      </c>
-      <c r="I59" t="n">
         <v>7308</v>
       </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>B0BZQ1TNW8</t>
+          <t>B0D8WH9NG3</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="C60" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E60" t="n">
-        <v>28.71084289950401</v>
-      </c>
-      <c r="F60" t="n">
-        <v>12.61942946412396</v>
-      </c>
-      <c r="G60" t="n">
-        <v>12.6935022747861</v>
-      </c>
-      <c r="H60" t="n">
-        <v>46.03599135459125</v>
-      </c>
-      <c r="I60" t="n">
         <v>7434</v>
       </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>B0C1M2BDNR</t>
+          <t>B083TZ68H1</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C61" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1.695582495781317</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2.610076627227638</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3.59687364248454</v>
-      </c>
-      <c r="I61" t="n">
         <v>7560</v>
       </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>B0C4CKFV65</t>
+          <t>B0CTNYTX8Y</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>15.90007861615785</v>
-      </c>
-      <c r="F62" t="n">
-        <v>12.06492851201365</v>
-      </c>
-      <c r="G62" t="n">
-        <v>9.480242612929271</v>
-      </c>
-      <c r="H62" t="n">
-        <v>14.41570324333849</v>
-      </c>
-      <c r="I62" t="n">
         <v>7686</v>
       </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>B0BZ17BQ4Z</t>
+          <t>B0DFHPZBGM</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C63" t="n">
         <v>0.05</v>
@@ -2387,339 +1899,259 @@
         <v>5</v>
       </c>
       <c r="E63" t="n">
-        <v>6.600189391222043</v>
+        <v>7812</v>
       </c>
       <c r="F63" t="n">
-        <v>6.34428877022476</v>
+        <v>6.234981956669963</v>
       </c>
       <c r="G63" t="n">
-        <v>4.373213921133975</v>
+        <v>5.556527692723217</v>
       </c>
       <c r="H63" t="n">
-        <v>17.1117649586476</v>
+        <v>3.905124837953327</v>
       </c>
       <c r="I63" t="n">
-        <v>7812</v>
+        <v>1.677050983124842</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>B0C4CB8G8D</t>
+          <t>B0CTNXBRJV</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0.1</v>
       </c>
       <c r="C64" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>6.06217782649107</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2.076655965729519</v>
-      </c>
-      <c r="G64" t="n">
-        <v>6.675514961409345</v>
-      </c>
-      <c r="H64" t="n">
-        <v>17.36015552925722</v>
-      </c>
-      <c r="I64" t="n">
         <v>7938</v>
       </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>B0BZQ416QM</t>
+          <t>B083SJLWL9</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>14.19066594631838</v>
-      </c>
-      <c r="F65" t="n">
-        <v>9.695359714832659</v>
-      </c>
-      <c r="G65" t="n">
-        <v>8.979142498033985</v>
-      </c>
-      <c r="H65" t="n">
-        <v>15.74603124599974</v>
-      </c>
-      <c r="I65" t="n">
         <v>8064</v>
       </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>B0C1ZZ57ZW</t>
+          <t>B0D8WKK29M</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C66" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>4.636809247747852</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5.958187643906492</v>
-      </c>
-      <c r="G66" t="n">
-        <v>2.82842712474619</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5.172040216394301</v>
-      </c>
-      <c r="I66" t="n">
         <v>8190</v>
       </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>B0CH92B3S2</t>
+          <t>B0CTTXH95Q</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>19.06567596493762</v>
-      </c>
-      <c r="F67" t="n">
-        <v>8.891709621889369</v>
-      </c>
-      <c r="G67" t="n">
-        <v>9.594920531197744</v>
-      </c>
-      <c r="H67" t="n">
-        <v>29.0269271539376</v>
-      </c>
-      <c r="I67" t="n">
         <v>8316</v>
       </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>B083RW9KDM</t>
+          <t>B0D2V4VH2C</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C68" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>10.49702338760851</v>
-      </c>
-      <c r="F68" t="n">
-        <v>16.19413474070165</v>
-      </c>
-      <c r="G68" t="n">
-        <v>24.09875515457178</v>
-      </c>
-      <c r="H68" t="n">
-        <v>37.14835124201342</v>
-      </c>
-      <c r="I68" t="n">
         <v>8442</v>
       </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>B083RW9TJF</t>
+          <t>B0CTTW2MVG</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C69" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>31.64747225293041</v>
-      </c>
-      <c r="F69" t="n">
-        <v>25.33155147242269</v>
-      </c>
-      <c r="G69" t="n">
-        <v>17.6458210350213</v>
-      </c>
-      <c r="H69" t="n">
-        <v>10.31988372027515</v>
-      </c>
-      <c r="I69" t="n">
         <v>8568</v>
       </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
+          <t>B0CTTWZCVK</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>0.1</v>
       </c>
       <c r="C70" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>6.991065727054782</v>
-      </c>
-      <c r="F70" t="n">
-        <v>9.724325169388361</v>
-      </c>
-      <c r="G70" t="n">
-        <v>25.09482018265921</v>
-      </c>
-      <c r="H70" t="n">
-        <v>51.26889895443436</v>
-      </c>
-      <c r="I70" t="n">
         <v>8694</v>
       </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>B0CNR8Y29S</t>
+          <t>B0D54QJ9CJ</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C71" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E71" t="n">
-        <v>8.753570700005799</v>
-      </c>
-      <c r="F71" t="n">
-        <v>4.190763653560053</v>
-      </c>
-      <c r="G71" t="n">
-        <v>16.32865579280793</v>
-      </c>
-      <c r="H71" t="n">
-        <v>37.58822954064211</v>
-      </c>
-      <c r="I71" t="n">
         <v>8820</v>
       </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>B0CN76TH9S</t>
+          <t>B0D33M6CB7</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>50.83674851915688</v>
-      </c>
-      <c r="F72" t="n">
-        <v>59.96717852292202</v>
-      </c>
-      <c r="G72" t="n">
-        <v>84.30154209740175</v>
-      </c>
-      <c r="H72" t="n">
-        <v>127.804293746337</v>
-      </c>
-      <c r="I72" t="n">
         <v>8946</v>
       </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>B0CKS6BMH7</t>
+          <t>B0CPW1F841</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="C73" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>13.03361039773707</v>
-      </c>
-      <c r="F73" t="n">
-        <v>9.246621004453464</v>
-      </c>
-      <c r="G73" t="n">
-        <v>9.503288904374106</v>
-      </c>
-      <c r="H73" t="n">
-        <v>23.55047770216137</v>
-      </c>
-      <c r="I73" t="n">
         <v>9072</v>
       </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>B083RVX2FQ</t>
+          <t>B0DGVGRVLQ</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C74" t="n">
         <v>0.05</v>
@@ -2728,29 +2160,29 @@
         <v>5</v>
       </c>
       <c r="E74" t="n">
-        <v>4.322904116447646</v>
+        <v>9214</v>
       </c>
       <c r="F74" t="n">
-        <v>5.952940449895329</v>
+        <v>64.62487911013838</v>
       </c>
       <c r="G74" t="n">
-        <v>11.26110562955521</v>
+        <v>100.8798790641622</v>
       </c>
       <c r="H74" t="n">
-        <v>20.73041244162788</v>
+        <v>148.7630246398614</v>
       </c>
       <c r="I74" t="n">
-        <v>9198</v>
+        <v>232.4745953862486</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>B0CMJSH15D</t>
+          <t>B0DGVGT3PJ</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C75" t="n">
         <v>0.1</v>
@@ -2759,60 +2191,60 @@
         <v>5</v>
       </c>
       <c r="E75" t="n">
-        <v>199.444541163703</v>
+        <v>9399</v>
       </c>
       <c r="F75" t="n">
-        <v>160.6936137498936</v>
+        <v>85.75619511149034</v>
       </c>
       <c r="G75" t="n">
-        <v>123.9899189450497</v>
+        <v>71.66065866289536</v>
       </c>
       <c r="H75" t="n">
-        <v>78.11809969526908</v>
+        <v>58.07000086102978</v>
       </c>
       <c r="I75" t="n">
-        <v>9324</v>
+        <v>53.5216077860148</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>B0CCWLMK56</t>
+          <t>B0DGVBM73J</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="C76" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
         <v>5</v>
       </c>
       <c r="E76" t="n">
-        <v>0.6614378277661477</v>
+        <v>9525</v>
       </c>
       <c r="F76" t="n">
-        <v>1.089724735885168</v>
+        <v>96.28083921528727</v>
       </c>
       <c r="G76" t="n">
-        <v>2.263846284534354</v>
+        <v>73.67114428322665</v>
       </c>
       <c r="H76" t="n">
-        <v>4.444097208657794</v>
+        <v>69.56022570406165</v>
       </c>
       <c r="I76" t="n">
-        <v>9450</v>
+        <v>115.3299614150634</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>B0CMK1W2YX</t>
+          <t>B0DGVSW4FD</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="C77" t="n">
         <v>0.05</v>
@@ -2821,277 +2253,229 @@
         <v>5</v>
       </c>
       <c r="E77" t="n">
-        <v>42.11071716321155</v>
+        <v>9651</v>
       </c>
       <c r="F77" t="n">
-        <v>23.9269722280108</v>
+        <v>66.97200907842021</v>
       </c>
       <c r="G77" t="n">
-        <v>10.97155412874585</v>
+        <v>55.95142982980864</v>
       </c>
       <c r="H77" t="n">
-        <v>34.65544690232691</v>
+        <v>41.84196458102798</v>
       </c>
       <c r="I77" t="n">
-        <v>9576</v>
+        <v>20.24228247999716</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>B0CNR6L1DH</t>
+          <t>B0DGVGV7YN</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D78" t="n">
         <v>5</v>
       </c>
       <c r="E78" t="n">
-        <v>15.46972850440498</v>
+        <v>9777</v>
       </c>
       <c r="F78" t="n">
-        <v>10.74709263010234</v>
+        <v>97.33864854208733</v>
       </c>
       <c r="G78" t="n">
-        <v>6.113509630318742</v>
+        <v>84.03793786142066</v>
       </c>
       <c r="H78" t="n">
-        <v>10.51487042240655</v>
+        <v>69.28744475011328</v>
       </c>
       <c r="I78" t="n">
-        <v>9702</v>
+        <v>46.12821804492344</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>B0D2V2FPS7</t>
+          <t>B0CTTVFWHM</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C79" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>12.55239021063319</v>
-      </c>
-      <c r="F79" t="n">
-        <v>8.562271894771854</v>
-      </c>
-      <c r="G79" t="n">
-        <v>3.992179855667828</v>
-      </c>
-      <c r="H79" t="n">
-        <v>6.373774391990981</v>
-      </c>
-      <c r="I79" t="n">
-        <v>9828</v>
-      </c>
+        <v>9910</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>B0D8WH9NG3</t>
+          <t>B0CTTWH6TD</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C80" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>21.77584671143696</v>
-      </c>
-      <c r="F80" t="n">
-        <v>14.8891739193281</v>
-      </c>
-      <c r="G80" t="n">
-        <v>10.45227248018344</v>
-      </c>
-      <c r="H80" t="n">
-        <v>18.45772196128222</v>
-      </c>
-      <c r="I80" t="n">
-        <v>9954</v>
-      </c>
+        <v>10036</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>B083TZ68H1</t>
+          <t>B0CTNPZLNH</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C81" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>180.6775442604863</v>
-      </c>
-      <c r="F81" t="n">
-        <v>203.1944881142203</v>
-      </c>
-      <c r="G81" t="n">
-        <v>270.8089732634427</v>
-      </c>
-      <c r="H81" t="n">
-        <v>418.3086480100549</v>
-      </c>
-      <c r="I81" t="n">
-        <v>10080</v>
-      </c>
+        <v>10162</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>B0CTTY491F</t>
+          <t>B0D8WH39QJ</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C82" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>4.16082924427331</v>
-      </c>
-      <c r="F82" t="n">
-        <v>4.506939094329987</v>
-      </c>
-      <c r="G82" t="n">
-        <v>8.429857650043683</v>
-      </c>
-      <c r="H82" t="n">
-        <v>28.40114434314223</v>
-      </c>
-      <c r="I82" t="n">
-        <v>10206</v>
-      </c>
+        <v>10288</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>B0CTNYTX8Y</t>
+          <t>B0D2RL4PT6</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>1.785357107135713</v>
-      </c>
-      <c r="F83" t="n">
-        <v>2.82842712474619</v>
-      </c>
-      <c r="G83" t="n">
-        <v>4.242640687119285</v>
-      </c>
-      <c r="H83" t="n">
-        <v>7.071067811865476</v>
-      </c>
-      <c r="I83" t="n">
-        <v>10332</v>
-      </c>
+        <v>10414</v>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>B0CTNXBRJV</t>
+          <t>B0D2PK3CC1</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="C84" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>19.20774583338711</v>
-      </c>
-      <c r="F84" t="n">
-        <v>11.4455231422596</v>
-      </c>
-      <c r="G84" t="n">
-        <v>7.224091638399945</v>
-      </c>
-      <c r="H84" t="n">
-        <v>21.44906757880165</v>
-      </c>
-      <c r="I84" t="n">
-        <v>10458</v>
-      </c>
+        <v>10540</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>B083SJLWL9</t>
+          <t>B0DJP95MGB</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D85" t="n">
         <v>5</v>
       </c>
       <c r="E85" t="n">
-        <v>17.38533865071371</v>
+        <v>10666</v>
       </c>
       <c r="F85" t="n">
-        <v>22.42487458158908</v>
+        <v>45.80529445380741</v>
       </c>
       <c r="G85" t="n">
-        <v>34.00918993448683</v>
+        <v>38.98236780904926</v>
       </c>
       <c r="H85" t="n">
-        <v>55.97990710960496</v>
+        <v>30.06139550985616</v>
       </c>
       <c r="I85" t="n">
-        <v>10584</v>
+        <v>16.96503757732355</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>B0D8WKK29M</t>
+          <t>B0DJP7NRXX</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C86" t="n">
         <v>0.05</v>
@@ -3100,122 +2484,122 @@
         <v>5</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>10792</v>
       </c>
       <c r="F86" t="n">
-        <v>0.4330127018922193</v>
+        <v>23.95438373241942</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>21.3116752039815</v>
       </c>
       <c r="H86" t="n">
-        <v>2.549509756796392</v>
+        <v>16.10900369358701</v>
       </c>
       <c r="I86" t="n">
-        <v>10710</v>
+        <v>8.246211251235321</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>B0CTTXH95Q</t>
+          <t>B0DJP76L1F</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="C87" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D87" t="n">
         <v>5</v>
       </c>
       <c r="E87" t="n">
-        <v>32.13642792844283</v>
+        <v>10918</v>
       </c>
       <c r="F87" t="n">
-        <v>33.13325368870374</v>
+        <v>1.391941090707505</v>
       </c>
       <c r="G87" t="n">
-        <v>22.6039266500314</v>
+        <v>1.479019945774904</v>
       </c>
       <c r="H87" t="n">
-        <v>4.430011286667337</v>
+        <v>3.112474899497183</v>
       </c>
       <c r="I87" t="n">
-        <v>10836</v>
+        <v>7.897784499465657</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>B0D2V4VH2C</t>
+          <t>B0DJP9LCYC</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>0.05</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D88" t="n">
         <v>5</v>
       </c>
       <c r="E88" t="n">
-        <v>59.09737726836953</v>
+        <v>11044</v>
       </c>
       <c r="F88" t="n">
-        <v>44.87552228108326</v>
+        <v>2.549509756796392</v>
       </c>
       <c r="G88" t="n">
-        <v>45.82712079107742</v>
+        <v>2.136000936329383</v>
       </c>
       <c r="H88" t="n">
-        <v>82.37262894918433</v>
+        <v>4.264680527307995</v>
       </c>
       <c r="I88" t="n">
-        <v>10962</v>
+        <v>10.44030650891055</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>B0CTTW2MVG</t>
+          <t>B0DJP8NFWP</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="D89" t="n">
         <v>5</v>
       </c>
       <c r="E89" t="n">
-        <v>3.579455265819088</v>
+        <v>11170</v>
       </c>
       <c r="F89" t="n">
-        <v>4.394598957811737</v>
+        <v>8.104782538723663</v>
       </c>
       <c r="G89" t="n">
-        <v>5.926634795564849</v>
+        <v>7.644442425710328</v>
       </c>
       <c r="H89" t="n">
-        <v>8.219641111386798</v>
+        <v>9.113863066779093</v>
       </c>
       <c r="I89" t="n">
-        <v>11088</v>
+        <v>18.51350858157362</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>B0CTTWZCVK</t>
+          <t>B0DJP8MMMJ</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="C90" t="n">
         <v>0.05</v>
@@ -3224,29 +2608,29 @@
         <v>5</v>
       </c>
       <c r="E90" t="n">
-        <v>1.369306393762915</v>
+        <v>11296</v>
       </c>
       <c r="F90" t="n">
-        <v>0.82915619758885</v>
+        <v>3.976493430146717</v>
       </c>
       <c r="G90" t="n">
-        <v>1.274754878398196</v>
+        <v>6.06217782649107</v>
       </c>
       <c r="H90" t="n">
-        <v>3.588175023601831</v>
+        <v>10.31079531365064</v>
       </c>
       <c r="I90" t="n">
-        <v>11214</v>
+        <v>18.55734355989564</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>B0D54QJ9CJ</t>
+          <t>B0DJP9DBVS</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C91" t="n">
         <v>0.05</v>
@@ -3255,56 +2639,56 @@
         <v>5</v>
       </c>
       <c r="E91" t="n">
-        <v>170.6128658689022</v>
+        <v>11422</v>
       </c>
       <c r="F91" t="n">
-        <v>152.324899474774</v>
+        <v>4.866980583482946</v>
       </c>
       <c r="G91" t="n">
-        <v>132.4537655183876</v>
+        <v>3.774917217635375</v>
       </c>
       <c r="H91" t="n">
-        <v>101.2774654106233</v>
+        <v>1.837117307087384</v>
       </c>
       <c r="I91" t="n">
-        <v>11340</v>
+        <v>2.82842712474619</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>B0D33M6CB7</t>
+          <t>B0DJP8W3BY</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C92" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D92" t="n">
         <v>5</v>
       </c>
       <c r="E92" t="n">
-        <v>12.56483187312906</v>
+        <v>11548</v>
       </c>
       <c r="F92" t="n">
-        <v>4.630064794363034</v>
+        <v>10.84550598174193</v>
       </c>
       <c r="G92" t="n">
-        <v>5.018714974971183</v>
+        <v>8.39270516579726</v>
       </c>
       <c r="H92" t="n">
-        <v>17.89902231966875</v>
+        <v>8.231038816577165</v>
       </c>
       <c r="I92" t="n">
-        <v>11466</v>
+        <v>18.43569906458662</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>B0CPW1F841</t>
+          <t>B0DJP82ML2</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -3317,29 +2701,29 @@
         <v>5</v>
       </c>
       <c r="E93" t="n">
-        <v>5.733672470589857</v>
+        <v>11674</v>
       </c>
       <c r="F93" t="n">
-        <v>10.54751155486449</v>
+        <v>10.27131929208707</v>
       </c>
       <c r="G93" t="n">
-        <v>17.84656829757475</v>
+        <v>8.573214099741124</v>
       </c>
       <c r="H93" t="n">
-        <v>30.58185736674606</v>
+        <v>5.07444578254611</v>
       </c>
       <c r="I93" t="n">
-        <v>11592</v>
+        <v>4.038873605350878</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>B0CTTVFWHM</t>
+          <t>B0DJP8Q6JK</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C94" t="n">
         <v>0.05</v>
@@ -3348,174 +2732,19 @@
         <v>5</v>
       </c>
       <c r="E94" t="n">
-        <v>25.4644359843292</v>
+        <v>11800</v>
       </c>
       <c r="F94" t="n">
-        <v>19.78635893740938</v>
+        <v>9.072623655812027</v>
       </c>
       <c r="G94" t="n">
-        <v>12.21679172287062</v>
+        <v>7.258615570478987</v>
       </c>
       <c r="H94" t="n">
-        <v>5.232112384114087</v>
+        <v>6.471089552772392</v>
       </c>
       <c r="I94" t="n">
-        <v>11718</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>B0CTTWH6TD</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D95" t="n">
-        <v>5</v>
-      </c>
-      <c r="E95" t="n">
-        <v>4.710360920354193</v>
-      </c>
-      <c r="F95" t="n">
-        <v>5.963430220938282</v>
-      </c>
-      <c r="G95" t="n">
-        <v>7.897784499465657</v>
-      </c>
-      <c r="H95" t="n">
-        <v>10.86565690605036</v>
-      </c>
-      <c r="I95" t="n">
-        <v>11844</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>B0CTNPZLNH</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D96" t="n">
-        <v>5</v>
-      </c>
-      <c r="E96" t="n">
-        <v>37.50833240761311</v>
-      </c>
-      <c r="F96" t="n">
-        <v>25.85536694769579</v>
-      </c>
-      <c r="G96" t="n">
-        <v>11.60549438843516</v>
-      </c>
-      <c r="H96" t="n">
-        <v>18.4000679346572</v>
-      </c>
-      <c r="I96" t="n">
-        <v>11970</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>B0D8WH39QJ</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C97" t="n">
-        <v>3</v>
-      </c>
-      <c r="D97" t="n">
-        <v>5</v>
-      </c>
-      <c r="E97" t="n">
-        <v>43.10452412450461</v>
-      </c>
-      <c r="F97" t="n">
-        <v>44.0489784217523</v>
-      </c>
-      <c r="G97" t="n">
-        <v>39.12160528403711</v>
-      </c>
-      <c r="H97" t="n">
-        <v>37.36475612124345</v>
-      </c>
-      <c r="I97" t="n">
-        <v>12096</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D98" t="n">
-        <v>5</v>
-      </c>
-      <c r="E98" t="n">
-        <v>43.55025832299965</v>
-      </c>
-      <c r="F98" t="n">
-        <v>32.3873046115295</v>
-      </c>
-      <c r="G98" t="n">
-        <v>30.66145789097446</v>
-      </c>
-      <c r="H98" t="n">
-        <v>54.32655888237355</v>
-      </c>
-      <c r="I98" t="n">
-        <v>12222</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>B0D2PK3CC1</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D99" t="n">
-        <v>10</v>
-      </c>
-      <c r="E99" t="n">
-        <v>6.098155458825234</v>
-      </c>
-      <c r="F99" t="n">
-        <v>6.670832032063167</v>
-      </c>
-      <c r="G99" t="n">
-        <v>16.23460809505422</v>
-      </c>
-      <c r="H99" t="n">
-        <v>32.77003204148571</v>
-      </c>
-      <c r="I99" t="n">
-        <v>12348</v>
+        <v>12.75980015517485</v>
       </c>
     </row>
   </sheetData>

--- a/prophet_feedback.xlsx
+++ b/prophet_feedback.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,116 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>changepoint_prior_scale</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>seasonality_prior_scale</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>holidays_prior_scale</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE_Mean</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE_P70</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE_P80</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE_P90</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Total Tests</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>B08KWMXGQW</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.4330127018922193</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.6123724356957945</v>
-      </c>
-      <c r="I2" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>B0CTTY491F</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>252</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/prophet_feedback.xlsx
+++ b/prophet_feedback.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,1333 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>changepoint_prior_scale</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>seasonality_prior_scale</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>holidays_prior_scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_Mean</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_P70</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_P80</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_P90</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Total Tests</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>B0BZ17BQ4Z</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.821825380496477</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.175823272122517</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.519202405202649</v>
+      </c>
+      <c r="H2" t="n">
+        <v>18.90436457540956</v>
+      </c>
+      <c r="I2" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B0C4CB8G8D</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.379358697837503</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.020761493398643</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8.085480814398114</v>
+      </c>
+      <c r="H3" t="n">
+        <v>18.13663419711607</v>
+      </c>
+      <c r="I3" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13.28297782878523</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.274950199005566</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.596194077712559</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14.63941597195735</v>
+      </c>
+      <c r="I4" t="n">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B0C1ZZ57ZW</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.346291201783626</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.6583123951777</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.23606797749979</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.407766195014527</v>
+      </c>
+      <c r="I5" t="n">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B0CH92B3S2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>24.39390292675611</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12.3161479367536</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.739120141624499</v>
+      </c>
+      <c r="H6" t="n">
+        <v>24.6576560118759</v>
+      </c>
+      <c r="I6" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B083RW9KDM</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19.96872554771586</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15.25614630239236</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9.437293044088436</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.898979485566356</v>
+      </c>
+      <c r="I7" t="n">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B083RW9TJF</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>23.39738233221828</v>
+      </c>
+      <c r="F8" t="n">
+        <v>17.60681686165901</v>
+      </c>
+      <c r="G8" t="n">
+        <v>12.02601347080569</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10.35012077224223</v>
+      </c>
+      <c r="I8" t="n">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>32.10042834605171</v>
+      </c>
+      <c r="F9" t="n">
+        <v>31.92765259144493</v>
+      </c>
+      <c r="G9" t="n">
+        <v>41.59176601203657</v>
+      </c>
+      <c r="H9" t="n">
+        <v>65.45131778658089</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B0CNR8Y29S</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>18.11249568667996</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9.545941546018392</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.097534783289195</v>
+      </c>
+      <c r="H10" t="n">
+        <v>26.11034277829382</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>49.80399080395064</v>
+      </c>
+      <c r="F11" t="n">
+        <v>59.16924876994806</v>
+      </c>
+      <c r="G11" t="n">
+        <v>82.94764915294465</v>
+      </c>
+      <c r="H11" t="n">
+        <v>125.2737003524682</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>B0CKS6BMH7</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>14.54303957224899</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9.810708435174291</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7.305819598101229</v>
+      </c>
+      <c r="H12" t="n">
+        <v>19.97498435543818</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>B083RVX2FQ</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.437140792732887</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.743416490252569</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.75806032459145</v>
+      </c>
+      <c r="H13" t="n">
+        <v>15.01665741768121</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>218.938490220427</v>
+      </c>
+      <c r="F14" t="n">
+        <v>185.6091323184288</v>
+      </c>
+      <c r="G14" t="n">
+        <v>154.048896458235</v>
+      </c>
+      <c r="H14" t="n">
+        <v>116.8399011468257</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>B0CCWLMK56</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.58113883008419</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9682458365518543</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.030776406404415</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.738612787525831</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>57.39664624348708</v>
+      </c>
+      <c r="F16" t="n">
+        <v>39.84658078179356</v>
+      </c>
+      <c r="G16" t="n">
+        <v>20.91201807573817</v>
+      </c>
+      <c r="H16" t="n">
+        <v>15.70031846810758</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>B0CNR6L1DH</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.623310502226732</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.274754878398196</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4.58257569495584</v>
+      </c>
+      <c r="H17" t="n">
+        <v>12.47998397434868</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B0D2V2FPS7</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6.025985396596975</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3.913118960624632</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.837117307087384</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B0D8WH9NG3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>46.58124622635165</v>
+      </c>
+      <c r="F19" t="n">
+        <v>39.60113634733226</v>
+      </c>
+      <c r="G19" t="n">
+        <v>31.69581991367316</v>
+      </c>
+      <c r="H19" t="n">
+        <v>18.86630594472591</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>223.6797375713768</v>
+      </c>
+      <c r="F20" t="n">
+        <v>152.9887659274366</v>
+      </c>
+      <c r="G20" t="n">
+        <v>115.8598291039651</v>
+      </c>
+      <c r="H20" t="n">
+        <v>191.5265973696604</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B0CTTY491F</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.946221994724902</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5.141740950300783</v>
+      </c>
+      <c r="G21" t="n">
+        <v>8.215838362577491</v>
+      </c>
+      <c r="H21" t="n">
+        <v>26.68332812825267</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>B0CTNYTX8Y</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.6583123951777</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.512468905280222</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4.06201920231798</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6.485560885536423</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.046603514059662</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.102418411497714</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.479019945774904</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.692582403567252</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B0CTNXBRJV</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.821825380496477</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10.78772450519571</v>
+      </c>
+      <c r="G24" t="n">
+        <v>20.39454583951307</v>
+      </c>
+      <c r="H24" t="n">
+        <v>36.84426685388108</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B083SJLWL9</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>24.08837894089181</v>
+      </c>
+      <c r="F25" t="n">
+        <v>14.78385944197252</v>
+      </c>
+      <c r="G25" t="n">
+        <v>12.97593927236098</v>
+      </c>
+      <c r="H25" t="n">
+        <v>28.9547060078323</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9682458365518543</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B0CTTXH95Q</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>32.53843880704789</v>
+      </c>
+      <c r="F27" t="n">
+        <v>31.54857366030991</v>
+      </c>
+      <c r="G27" t="n">
+        <v>20.67758448175222</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5.315072906367325</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>30.90509666705477</v>
+      </c>
+      <c r="F28" t="n">
+        <v>49.52272205765753</v>
+      </c>
+      <c r="G28" t="n">
+        <v>81.57167094034546</v>
+      </c>
+      <c r="H28" t="n">
+        <v>140.2299450901982</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B0CTTW2MVG</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.335416016031584</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4.085033659592048</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.448623679425842</v>
+      </c>
+      <c r="H29" t="n">
+        <v>7.802243267163617</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B0CTTWZCVK</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.633913438213185</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.076655965729519</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.7905694150420949</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.854049621773916</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B0D54QJ9CJ</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>209.3597382497408</v>
+      </c>
+      <c r="F31" t="n">
+        <v>193.0785138227452</v>
+      </c>
+      <c r="G31" t="n">
+        <v>175.6288700641213</v>
+      </c>
+      <c r="H31" t="n">
+        <v>148.5639592902666</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B0D33M6CB7</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>16.12839111628931</v>
+      </c>
+      <c r="F32" t="n">
+        <v>8.374067112222113</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6.067330549755798</v>
+      </c>
+      <c r="H32" t="n">
+        <v>17.54992877478425</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.23606797749979</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5.350233639758174</v>
+      </c>
+      <c r="G33" t="n">
+        <v>11.19988839230106</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21.29994131447314</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>57.00109648068184</v>
+      </c>
+      <c r="F34" t="n">
+        <v>68.20832060679987</v>
+      </c>
+      <c r="G34" t="n">
+        <v>102.9353559278832</v>
+      </c>
+      <c r="H34" t="n">
+        <v>172.9575453687985</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>81.01581635705463</v>
+      </c>
+      <c r="F35" t="n">
+        <v>68.07670306352975</v>
+      </c>
+      <c r="G35" t="n">
+        <v>81.86650719311287</v>
+      </c>
+      <c r="H35" t="n">
+        <v>139.9437386952342</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>B0DGVSW4FD</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>77.16824152460649</v>
+      </c>
+      <c r="F36" t="n">
+        <v>67.35261687566415</v>
+      </c>
+      <c r="G36" t="n">
+        <v>55.91343756200293</v>
+      </c>
+      <c r="H36" t="n">
+        <v>38.06162765831225</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4429</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>24.5903944661325</v>
+      </c>
+      <c r="F37" t="n">
+        <v>19.46792233393179</v>
+      </c>
+      <c r="G37" t="n">
+        <v>13.4350288425444</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5.431390245600108</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4555</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B0CTTWH6TD</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C38" t="n">
+        <v>5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7</v>
+      </c>
+      <c r="F38" t="n">
+        <v>6.269968101992227</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5.273755777432247</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4.697073557013984</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>52.77724414934907</v>
+      </c>
+      <c r="F39" t="n">
+        <v>41.42840209324999</v>
+      </c>
+      <c r="G39" t="n">
+        <v>26.63174797117155</v>
+      </c>
+      <c r="H39" t="n">
+        <v>8.540345426269361</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4807</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>71.6576060163888</v>
+      </c>
+      <c r="F40" t="n">
+        <v>70.98767498657777</v>
+      </c>
+      <c r="G40" t="n">
+        <v>61.69380033682477</v>
+      </c>
+      <c r="H40" t="n">
+        <v>43.53375127415509</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4933</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>25.19176452732123</v>
+      </c>
+      <c r="F41" t="n">
+        <v>14.91224329200674</v>
+      </c>
+      <c r="G41" t="n">
+        <v>17.70416617635522</v>
+      </c>
+      <c r="H41" t="n">
+        <v>43.9985795225255</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5059</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B0D2PK3CC1</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>13.88569407699882</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6.378675411086537</v>
+      </c>
+      <c r="G42" t="n">
+        <v>6.782329983125268</v>
+      </c>
+      <c r="H42" t="n">
+        <v>21.05647168924557</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5185</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/prophet_feedback.xlsx
+++ b/prophet_feedback.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,93 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>changepoint_prior_scale</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>seasonality_prior_scale</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>holidays_prior_scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_Mean</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_P70</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_P80</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE_P90</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Total Tests</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>22.65364209128413</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12.05456345124119</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14.72667647502314</v>
+      </c>
+      <c r="H2" t="n">
+        <v>33.89874628950162</v>
+      </c>
+      <c r="I2" t="n">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/prophet_feedback.xlsx
+++ b/prophet_feedback.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,11 +483,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
+          <t>B09L9DY4L1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
         <v>0.05</v>
@@ -496,19 +496,3150 @@
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>22.65364209128413</v>
+        <v>2.207940216581962</v>
       </c>
       <c r="F2" t="n">
-        <v>12.05456345124119</v>
+        <v>2.98956518577535</v>
       </c>
       <c r="G2" t="n">
-        <v>14.72667647502314</v>
+        <v>0.8660254037844386</v>
       </c>
       <c r="H2" t="n">
-        <v>33.89874628950162</v>
+        <v>5.320949163448191</v>
       </c>
       <c r="I2" t="n">
         <v>126</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B08KGVH7YC</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>30.27168644129362</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19.13112646970899</v>
+      </c>
+      <c r="G3" t="n">
+        <v>30.52150880936262</v>
+      </c>
+      <c r="H3" t="n">
+        <v>75.87983921965044</v>
+      </c>
+      <c r="I3" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B09JZFT4SN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.19895788082818</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.29772648956823</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.768493185340442</v>
+      </c>
+      <c r="I4" t="n">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B09JZGTYXJ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9354143466934853</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6614378277661477</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.767766952966369</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.038873605350878</v>
+      </c>
+      <c r="I5" t="n">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B07T6N8N56</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4330127018922193</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.4330127018922193</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5590169943749475</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.089724735885168</v>
+      </c>
+      <c r="I6" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>30.32325840011261</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20.17578994736018</v>
+      </c>
+      <c r="G7" t="n">
+        <v>22.67294643402132</v>
+      </c>
+      <c r="H7" t="n">
+        <v>47.72185034132688</v>
+      </c>
+      <c r="I7" t="n">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B0BH6XND27</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>35.77708763999664</v>
+      </c>
+      <c r="F8" t="n">
+        <v>19.20123693932242</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.08103113185567</v>
+      </c>
+      <c r="H8" t="n">
+        <v>41.17872630376029</v>
+      </c>
+      <c r="I8" t="n">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.102418411497714</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.854049621773916</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.677050983124842</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.190134873006674</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B087GFYBCW</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>B08LGKGBKT</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>58.7526595142722</v>
+      </c>
+      <c r="F11" t="n">
+        <v>48.19426833141053</v>
+      </c>
+      <c r="G11" t="n">
+        <v>40.1100049862874</v>
+      </c>
+      <c r="H11" t="n">
+        <v>41.93894371583529</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>B07GBM3M88</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.520690632574555</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.695582495781317</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>199.4457946410503</v>
+      </c>
+      <c r="F13" t="n">
+        <v>146.4468760335979</v>
+      </c>
+      <c r="G13" t="n">
+        <v>109.6289195422449</v>
+      </c>
+      <c r="H13" t="n">
+        <v>78.81108741795154</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>B07VNBC5PS</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.756574397610112</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10.37123425634577</v>
+      </c>
+      <c r="G14" t="n">
+        <v>17.12636855845395</v>
+      </c>
+      <c r="H14" t="n">
+        <v>28.20571750549878</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.706356105256663</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6.661456297237114</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9.956153875869939</v>
+      </c>
+      <c r="H15" t="n">
+        <v>15.80941175376238</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>B083NN4MLZ</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>B0BH9BBLHB</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.806243040080456</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.968501968502953</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.274754878398196</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.897114317029974</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B0BHTMXMRQ</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>18.14352501582865</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12.93010054098575</v>
+      </c>
+      <c r="G18" t="n">
+        <v>11.71003842863037</v>
+      </c>
+      <c r="H18" t="n">
+        <v>20.33162561134746</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B07FWVJSHC</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.10653744329409</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.732050807568877</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.230711995830021</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6.417748826496718</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>22.65364209128413</v>
+      </c>
+      <c r="F20" t="n">
+        <v>12.05456345124119</v>
+      </c>
+      <c r="G20" t="n">
+        <v>14.72667647502314</v>
+      </c>
+      <c r="H20" t="n">
+        <v>33.89874628950162</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B07FW85VFT</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.782781617427248</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4.123105625617661</v>
+      </c>
+      <c r="G21" t="n">
+        <v>8.204419540710969</v>
+      </c>
+      <c r="H21" t="n">
+        <v>16.65270248338089</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>31.61091583614749</v>
+      </c>
+      <c r="F22" t="n">
+        <v>16.867127793433</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30.34180284689755</v>
+      </c>
+      <c r="H22" t="n">
+        <v>73.31012890453815</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>B09J5TC4F8</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.952562418976663</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.674234614174767</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>52.89612462175278</v>
+      </c>
+      <c r="F24" t="n">
+        <v>40.21737808460417</v>
+      </c>
+      <c r="G24" t="n">
+        <v>50.94911677350256</v>
+      </c>
+      <c r="H24" t="n">
+        <v>95.50065444801936</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B079NYQQJJ</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.122498999199199</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.423839928708165</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4.650268809434569</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9.714679613862724</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>48.56632063477735</v>
+      </c>
+      <c r="F26" t="n">
+        <v>46.93013424229682</v>
+      </c>
+      <c r="G26" t="n">
+        <v>56.31052299526262</v>
+      </c>
+      <c r="H26" t="n">
+        <v>84.46855923951823</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B089FWWN62</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9.212762886344139</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8.627716963368698</v>
+      </c>
+      <c r="G27" t="n">
+        <v>15.95109714094927</v>
+      </c>
+      <c r="H27" t="n">
+        <v>30.9212709958695</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>B0BH9F7DKS</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6.234981956669963</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4.736823830374104</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6.456585785072479</v>
+      </c>
+      <c r="H28" t="n">
+        <v>20.81015377165676</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B07WL5MFXL</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.57390753524675</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.520690632574555</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.366062299143245</v>
+      </c>
+      <c r="H29" t="n">
+        <v>10.32593821403169</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B0BSB6MB15</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>205.3162195249075</v>
+      </c>
+      <c r="F30" t="n">
+        <v>180.2401176209115</v>
+      </c>
+      <c r="G30" t="n">
+        <v>155.5365712621955</v>
+      </c>
+      <c r="H30" t="n">
+        <v>117.7786589327625</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>41.98958204126352</v>
+      </c>
+      <c r="F31" t="n">
+        <v>25.73300409979371</v>
+      </c>
+      <c r="G31" t="n">
+        <v>12.18092771507983</v>
+      </c>
+      <c r="H31" t="n">
+        <v>24.69691276252965</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.198213905936666</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.979093821953246</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7.327175444876422</v>
+      </c>
+      <c r="H32" t="n">
+        <v>22.15005643333669</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.5590169943749475</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.7905694150420949</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>B083GT6ZBX</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.9682458365518543</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>B08BR1XDX5</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.61420807370024</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2.549509756796392</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5.471517157059822</v>
+      </c>
+      <c r="H35" t="n">
+        <v>11.60280138587229</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>B0BH79FMW3</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5.618051263561058</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3.354101966249685</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.193741096848031</v>
+      </c>
+      <c r="H36" t="n">
+        <v>7.941190087134295</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>72.17253632788584</v>
+      </c>
+      <c r="F37" t="n">
+        <v>113.8071285113547</v>
+      </c>
+      <c r="G37" t="n">
+        <v>169.8258298963971</v>
+      </c>
+      <c r="H37" t="n">
+        <v>262.3411424081248</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B0BJ5SDGXK</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.089724735885168</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.030776406404415</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9354143466934853</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.600781059358212</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4662</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B0BSB4TYHV</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.633913438213185</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3.944933459514875</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.457737973711325</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7.623975340988453</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4788</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.3535533905932738</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.3535533905932738</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4914</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>12.88409872672513</v>
+      </c>
+      <c r="F41" t="n">
+        <v>10.10569146570387</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5.777110004145672</v>
+      </c>
+      <c r="H41" t="n">
+        <v>7.399324293474371</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B0BSNYN4XQ</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>6.194755846681933</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4.046603514059662</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3.73329613076702</v>
+      </c>
+      <c r="H42" t="n">
+        <v>11.60549438843516</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5166</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B0BVWQ3BMJ</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.401704215414752</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4.815340071064556</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.39791576165636</v>
+      </c>
+      <c r="H43" t="n">
+        <v>10.35917467755033</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5292</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B0BSP61QZC</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>24.62468273907301</v>
+      </c>
+      <c r="F44" t="n">
+        <v>14.99791652197064</v>
+      </c>
+      <c r="G44" t="n">
+        <v>12.92526595471056</v>
+      </c>
+      <c r="H44" t="n">
+        <v>27.59189192498405</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5418</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B083R7SWF5</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.299038105676658</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.449489742783178</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4.943429983321297</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5544</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B09J6BWK2Z</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.165063509461097</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.837117307087384</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3.50891721190455</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7.176350047203662</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5670</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B0BTQ3SVFR</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>35.2845575287547</v>
+      </c>
+      <c r="F47" t="n">
+        <v>29.73739228648</v>
+      </c>
+      <c r="G47" t="n">
+        <v>13.76135894452288</v>
+      </c>
+      <c r="H47" t="n">
+        <v>22.91151457237168</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5796</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>B0BTTZFQTP</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" t="n">
+        <v>15</v>
+      </c>
+      <c r="E48" t="n">
+        <v>49.96498774141749</v>
+      </c>
+      <c r="F48" t="n">
+        <v>52.85889234556471</v>
+      </c>
+      <c r="G48" t="n">
+        <v>68.05742060936485</v>
+      </c>
+      <c r="H48" t="n">
+        <v>102.1662248495069</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5922</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>B0BVBXT6P1</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>10</v>
+      </c>
+      <c r="E49" t="n">
+        <v>19.6596032513375</v>
+      </c>
+      <c r="F49" t="n">
+        <v>16.32674186725569</v>
+      </c>
+      <c r="G49" t="n">
+        <v>19.73892094315188</v>
+      </c>
+      <c r="H49" t="n">
+        <v>33.10117067416196</v>
+      </c>
+      <c r="I49" t="n">
+        <v>6048</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>B083R7PHMX</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.030776406404415</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.030776406404415</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.29128784747792</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5.261891294962297</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6174</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B083R826VW</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4.841229182759271</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5.755432216610669</v>
+      </c>
+      <c r="G51" t="n">
+        <v>14.01115626920205</v>
+      </c>
+      <c r="H51" t="n">
+        <v>27.98325392087203</v>
+      </c>
+      <c r="I51" t="n">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>B0BSB6MZ2L</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.10653744329409</v>
+      </c>
+      <c r="F52" t="n">
+        <v>6.18465843842649</v>
+      </c>
+      <c r="G52" t="n">
+        <v>13.34868907421249</v>
+      </c>
+      <c r="H52" t="n">
+        <v>25.14831008238923</v>
+      </c>
+      <c r="I52" t="n">
+        <v>6426</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>B083R7T5P4</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.926174977679906</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.936491673103709</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.046338192968113</v>
+      </c>
+      <c r="I53" t="n">
+        <v>6552</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B0BZQ43XXL</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.457737973711325</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.872281323269014</v>
+      </c>
+      <c r="H54" t="n">
+        <v>6.828250141873832</v>
+      </c>
+      <c r="I54" t="n">
+        <v>6678</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>B09J64TBJG</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.6393596310755</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.172603939955857</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.669269563007828</v>
+      </c>
+      <c r="H55" t="n">
+        <v>5.018714974971183</v>
+      </c>
+      <c r="I55" t="n">
+        <v>6804</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B0BYBHW4SH</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>188.0245994544331</v>
+      </c>
+      <c r="F56" t="n">
+        <v>166.3736382363504</v>
+      </c>
+      <c r="G56" t="n">
+        <v>138.484430532822</v>
+      </c>
+      <c r="H56" t="n">
+        <v>99.04039579888602</v>
+      </c>
+      <c r="I56" t="n">
+        <v>6930</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B0BZ54DR5L</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3</v>
+      </c>
+      <c r="D57" t="n">
+        <v>15</v>
+      </c>
+      <c r="E57" t="n">
+        <v>7.516648189186454</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5.80409338312195</v>
+      </c>
+      <c r="G57" t="n">
+        <v>7.040063920164362</v>
+      </c>
+      <c r="H57" t="n">
+        <v>13.73635686781615</v>
+      </c>
+      <c r="I57" t="n">
+        <v>7056</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B0C4CKCRYW</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" t="n">
+        <v>7.491662031885848</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4.415880433163924</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.299038105676658</v>
+      </c>
+      <c r="H58" t="n">
+        <v>9.100137361600648</v>
+      </c>
+      <c r="I58" t="n">
+        <v>7182</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B0BZQ1PWGJ</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5</v>
+      </c>
+      <c r="E59" t="n">
+        <v>9.80114789195633</v>
+      </c>
+      <c r="F59" t="n">
+        <v>7.241374178980119</v>
+      </c>
+      <c r="G59" t="n">
+        <v>15.5884572681199</v>
+      </c>
+      <c r="H59" t="n">
+        <v>35.78582121455368</v>
+      </c>
+      <c r="I59" t="n">
+        <v>7308</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B0BZQ1TNW8</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>36.71682175788095</v>
+      </c>
+      <c r="F60" t="n">
+        <v>19.38588403968207</v>
+      </c>
+      <c r="G60" t="n">
+        <v>10.16427567512806</v>
+      </c>
+      <c r="H60" t="n">
+        <v>42.42640687119285</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7434</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.457737973711325</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.29128784747792</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.59687364248454</v>
+      </c>
+      <c r="I61" t="n">
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>B0C4CKFV65</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C62" t="n">
+        <v>5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>16.38787661657238</v>
+      </c>
+      <c r="F62" t="n">
+        <v>12.53744391811983</v>
+      </c>
+      <c r="G62" t="n">
+        <v>9.617692030835672</v>
+      </c>
+      <c r="H62" t="n">
+        <v>12.65158092887999</v>
+      </c>
+      <c r="I62" t="n">
+        <v>7686</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>B0BZ17BQ4Z</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.821825380496477</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4.175823272122517</v>
+      </c>
+      <c r="G63" t="n">
+        <v>6.519202405202649</v>
+      </c>
+      <c r="H63" t="n">
+        <v>18.90436457540956</v>
+      </c>
+      <c r="I63" t="n">
+        <v>7812</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>B0C4CB8G8D</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" t="n">
+        <v>5.379358697837503</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3.020761493398643</v>
+      </c>
+      <c r="G64" t="n">
+        <v>8.085480814398114</v>
+      </c>
+      <c r="H64" t="n">
+        <v>18.13663419711607</v>
+      </c>
+      <c r="I64" t="n">
+        <v>7938</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" t="n">
+        <v>13.28297782878523</v>
+      </c>
+      <c r="F65" t="n">
+        <v>6.274950199005566</v>
+      </c>
+      <c r="G65" t="n">
+        <v>4.596194077712559</v>
+      </c>
+      <c r="H65" t="n">
+        <v>14.63941597195735</v>
+      </c>
+      <c r="I65" t="n">
+        <v>8064</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>B0C1ZZ57ZW</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C66" t="n">
+        <v>5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.346291201783626</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.6583123951777</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2.23606797749979</v>
+      </c>
+      <c r="H66" t="n">
+        <v>7.407766195014527</v>
+      </c>
+      <c r="I66" t="n">
+        <v>8190</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>B0CH92B3S2</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="n">
+        <v>24.39390292675611</v>
+      </c>
+      <c r="F67" t="n">
+        <v>12.3161479367536</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5.739120141624499</v>
+      </c>
+      <c r="H67" t="n">
+        <v>24.6576560118759</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8316</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>B083RW9KDM</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" t="n">
+        <v>19.96872554771586</v>
+      </c>
+      <c r="F68" t="n">
+        <v>15.25614630239236</v>
+      </c>
+      <c r="G68" t="n">
+        <v>9.437293044088436</v>
+      </c>
+      <c r="H68" t="n">
+        <v>4.898979485566356</v>
+      </c>
+      <c r="I68" t="n">
+        <v>8442</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>B083RW9TJF</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D69" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" t="n">
+        <v>23.39738233221828</v>
+      </c>
+      <c r="F69" t="n">
+        <v>17.60681686165901</v>
+      </c>
+      <c r="G69" t="n">
+        <v>12.02601347080569</v>
+      </c>
+      <c r="H69" t="n">
+        <v>10.35012077224223</v>
+      </c>
+      <c r="I69" t="n">
+        <v>8568</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" t="n">
+        <v>32.10042834605171</v>
+      </c>
+      <c r="F70" t="n">
+        <v>31.92765259144493</v>
+      </c>
+      <c r="G70" t="n">
+        <v>41.59176601203657</v>
+      </c>
+      <c r="H70" t="n">
+        <v>65.45131778658089</v>
+      </c>
+      <c r="I70" t="n">
+        <v>8694</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>B0CNR8Y29S</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>18.11249568667996</v>
+      </c>
+      <c r="F71" t="n">
+        <v>9.545941546018392</v>
+      </c>
+      <c r="G71" t="n">
+        <v>7.097534783289195</v>
+      </c>
+      <c r="H71" t="n">
+        <v>26.11034277829382</v>
+      </c>
+      <c r="I71" t="n">
+        <v>8820</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4</v>
+      </c>
+      <c r="D72" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" t="n">
+        <v>49.80399080395064</v>
+      </c>
+      <c r="F72" t="n">
+        <v>59.16924876994806</v>
+      </c>
+      <c r="G72" t="n">
+        <v>82.94764915294465</v>
+      </c>
+      <c r="H72" t="n">
+        <v>125.2737003524682</v>
+      </c>
+      <c r="I72" t="n">
+        <v>8946</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>B0CKS6BMH7</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" t="n">
+        <v>14.54303957224899</v>
+      </c>
+      <c r="F73" t="n">
+        <v>9.810708435174291</v>
+      </c>
+      <c r="G73" t="n">
+        <v>7.305819598101229</v>
+      </c>
+      <c r="H73" t="n">
+        <v>19.97498435543818</v>
+      </c>
+      <c r="I73" t="n">
+        <v>9072</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>B083RVX2FQ</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" t="n">
+        <v>5.437140792732887</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4.743416490252569</v>
+      </c>
+      <c r="G74" t="n">
+        <v>7.75806032459145</v>
+      </c>
+      <c r="H74" t="n">
+        <v>15.01665741768121</v>
+      </c>
+      <c r="I74" t="n">
+        <v>9198</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>218.938490220427</v>
+      </c>
+      <c r="F75" t="n">
+        <v>185.6091323184288</v>
+      </c>
+      <c r="G75" t="n">
+        <v>154.048896458235</v>
+      </c>
+      <c r="H75" t="n">
+        <v>116.8399011468257</v>
+      </c>
+      <c r="I75" t="n">
+        <v>9324</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>B0CCWLMK56</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.58113883008419</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.9682458365518543</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.030776406404415</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2.738612787525831</v>
+      </c>
+      <c r="I76" t="n">
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>57.39664624348708</v>
+      </c>
+      <c r="F77" t="n">
+        <v>39.84658078179356</v>
+      </c>
+      <c r="G77" t="n">
+        <v>20.91201807573817</v>
+      </c>
+      <c r="H77" t="n">
+        <v>15.70031846810758</v>
+      </c>
+      <c r="I77" t="n">
+        <v>9576</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>B0CNR6L1DH</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4.623310502226732</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.274754878398196</v>
+      </c>
+      <c r="G78" t="n">
+        <v>4.58257569495584</v>
+      </c>
+      <c r="H78" t="n">
+        <v>12.47998397434868</v>
+      </c>
+      <c r="I78" t="n">
+        <v>9702</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>B0D2V2FPS7</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>6.025985396596975</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3.913118960624632</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.837117307087384</v>
+      </c>
+      <c r="H79" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I79" t="n">
+        <v>9828</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>B0D8WH9NG3</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5</v>
+      </c>
+      <c r="E80" t="n">
+        <v>46.58124622635165</v>
+      </c>
+      <c r="F80" t="n">
+        <v>39.60113634733226</v>
+      </c>
+      <c r="G80" t="n">
+        <v>31.69581991367316</v>
+      </c>
+      <c r="H80" t="n">
+        <v>18.86630594472591</v>
+      </c>
+      <c r="I80" t="n">
+        <v>9954</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D81" t="n">
+        <v>5</v>
+      </c>
+      <c r="E81" t="n">
+        <v>223.6797375713768</v>
+      </c>
+      <c r="F81" t="n">
+        <v>152.9887659274366</v>
+      </c>
+      <c r="G81" t="n">
+        <v>115.8598291039651</v>
+      </c>
+      <c r="H81" t="n">
+        <v>191.5265973696604</v>
+      </c>
+      <c r="I81" t="n">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>B0CTTY491F</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5</v>
+      </c>
+      <c r="E82" t="n">
+        <v>6.946221994724902</v>
+      </c>
+      <c r="F82" t="n">
+        <v>5.141740950300783</v>
+      </c>
+      <c r="G82" t="n">
+        <v>8.215838362577491</v>
+      </c>
+      <c r="H82" t="n">
+        <v>26.68332812825267</v>
+      </c>
+      <c r="I82" t="n">
+        <v>10206</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>B0CTNYTX8Y</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>5</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.6583123951777</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2.512468905280222</v>
+      </c>
+      <c r="G83" t="n">
+        <v>4.06201920231798</v>
+      </c>
+      <c r="H83" t="n">
+        <v>6.485560885536423</v>
+      </c>
+      <c r="I83" t="n">
+        <v>10332</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5</v>
+      </c>
+      <c r="E84" t="n">
+        <v>4.046603514059662</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3.102418411497714</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.479019945774904</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2.692582403567252</v>
+      </c>
+      <c r="I84" t="n">
+        <v>10458</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>B0CTNXBRJV</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5</v>
+      </c>
+      <c r="E85" t="n">
+        <v>4.821825380496477</v>
+      </c>
+      <c r="F85" t="n">
+        <v>10.78772450519571</v>
+      </c>
+      <c r="G85" t="n">
+        <v>20.39454583951307</v>
+      </c>
+      <c r="H85" t="n">
+        <v>36.84426685388108</v>
+      </c>
+      <c r="I85" t="n">
+        <v>10584</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>B083SJLWL9</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D86" t="n">
+        <v>5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>24.08837894089181</v>
+      </c>
+      <c r="F86" t="n">
+        <v>14.78385944197252</v>
+      </c>
+      <c r="G86" t="n">
+        <v>12.97593927236098</v>
+      </c>
+      <c r="H86" t="n">
+        <v>28.9547060078323</v>
+      </c>
+      <c r="I86" t="n">
+        <v>10710</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.9682458365518543</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+      <c r="I87" t="n">
+        <v>10836</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>B0CTTXH95Q</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5</v>
+      </c>
+      <c r="E88" t="n">
+        <v>32.53843880704789</v>
+      </c>
+      <c r="F88" t="n">
+        <v>31.54857366030991</v>
+      </c>
+      <c r="G88" t="n">
+        <v>20.67758448175222</v>
+      </c>
+      <c r="H88" t="n">
+        <v>5.315072906367325</v>
+      </c>
+      <c r="I88" t="n">
+        <v>10962</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5</v>
+      </c>
+      <c r="E89" t="n">
+        <v>30.90509666705477</v>
+      </c>
+      <c r="F89" t="n">
+        <v>49.52272205765753</v>
+      </c>
+      <c r="G89" t="n">
+        <v>81.57167094034546</v>
+      </c>
+      <c r="H89" t="n">
+        <v>140.2299450901982</v>
+      </c>
+      <c r="I89" t="n">
+        <v>11088</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>B0CTTW2MVG</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.335416016031584</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4.085033659592048</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5.448623679425842</v>
+      </c>
+      <c r="H90" t="n">
+        <v>7.802243267163617</v>
+      </c>
+      <c r="I90" t="n">
+        <v>11214</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>B0CTTWZCVK</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.633913438213185</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2.076655965729519</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.7905694150420949</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.854049621773916</v>
+      </c>
+      <c r="I91" t="n">
+        <v>11340</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>B0D54QJ9CJ</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>209.3597382497408</v>
+      </c>
+      <c r="F92" t="n">
+        <v>193.0785138227452</v>
+      </c>
+      <c r="G92" t="n">
+        <v>175.6288700641213</v>
+      </c>
+      <c r="H92" t="n">
+        <v>148.5639592902666</v>
+      </c>
+      <c r="I92" t="n">
+        <v>11466</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>B0D33M6CB7</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D93" t="n">
+        <v>5</v>
+      </c>
+      <c r="E93" t="n">
+        <v>16.12839111628931</v>
+      </c>
+      <c r="F93" t="n">
+        <v>8.374067112222113</v>
+      </c>
+      <c r="G93" t="n">
+        <v>6.067330549755798</v>
+      </c>
+      <c r="H93" t="n">
+        <v>17.54992877478425</v>
+      </c>
+      <c r="I93" t="n">
+        <v>11592</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.23606797749979</v>
+      </c>
+      <c r="F94" t="n">
+        <v>5.350233639758174</v>
+      </c>
+      <c r="G94" t="n">
+        <v>11.19988839230106</v>
+      </c>
+      <c r="H94" t="n">
+        <v>21.29994131447314</v>
+      </c>
+      <c r="I94" t="n">
+        <v>11718</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5</v>
+      </c>
+      <c r="E95" t="n">
+        <v>57.00109648068184</v>
+      </c>
+      <c r="F95" t="n">
+        <v>68.20832060679987</v>
+      </c>
+      <c r="G95" t="n">
+        <v>102.9353559278832</v>
+      </c>
+      <c r="H95" t="n">
+        <v>172.9575453687985</v>
+      </c>
+      <c r="I95" t="n">
+        <v>11863</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5</v>
+      </c>
+      <c r="E96" t="n">
+        <v>81.01581635705463</v>
+      </c>
+      <c r="F96" t="n">
+        <v>68.07670306352975</v>
+      </c>
+      <c r="G96" t="n">
+        <v>81.86650719311287</v>
+      </c>
+      <c r="H96" t="n">
+        <v>139.9437386952342</v>
+      </c>
+      <c r="I96" t="n">
+        <v>11989</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>B0DGVSW4FD</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" t="n">
+        <v>77.16824152460649</v>
+      </c>
+      <c r="F97" t="n">
+        <v>67.35261687566415</v>
+      </c>
+      <c r="G97" t="n">
+        <v>55.91343756200293</v>
+      </c>
+      <c r="H97" t="n">
+        <v>38.06162765831225</v>
+      </c>
+      <c r="I97" t="n">
+        <v>12115</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D98" t="n">
+        <v>5</v>
+      </c>
+      <c r="E98" t="n">
+        <v>24.5903944661325</v>
+      </c>
+      <c r="F98" t="n">
+        <v>19.46792233393179</v>
+      </c>
+      <c r="G98" t="n">
+        <v>13.4350288425444</v>
+      </c>
+      <c r="H98" t="n">
+        <v>5.431390245600108</v>
+      </c>
+      <c r="I98" t="n">
+        <v>12241</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>B0CTTWH6TD</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C99" t="n">
+        <v>5</v>
+      </c>
+      <c r="D99" t="n">
+        <v>5</v>
+      </c>
+      <c r="E99" t="n">
+        <v>7</v>
+      </c>
+      <c r="F99" t="n">
+        <v>6.269968101992227</v>
+      </c>
+      <c r="G99" t="n">
+        <v>5.273755777432247</v>
+      </c>
+      <c r="H99" t="n">
+        <v>4.697073557013984</v>
+      </c>
+      <c r="I99" t="n">
+        <v>12367</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D100" t="n">
+        <v>5</v>
+      </c>
+      <c r="E100" t="n">
+        <v>52.77724414934907</v>
+      </c>
+      <c r="F100" t="n">
+        <v>41.42840209324999</v>
+      </c>
+      <c r="G100" t="n">
+        <v>26.63174797117155</v>
+      </c>
+      <c r="H100" t="n">
+        <v>8.540345426269361</v>
+      </c>
+      <c r="I100" t="n">
+        <v>12493</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D101" t="n">
+        <v>5</v>
+      </c>
+      <c r="E101" t="n">
+        <v>71.6576060163888</v>
+      </c>
+      <c r="F101" t="n">
+        <v>70.98767498657777</v>
+      </c>
+      <c r="G101" t="n">
+        <v>61.69380033682477</v>
+      </c>
+      <c r="H101" t="n">
+        <v>43.53375127415509</v>
+      </c>
+      <c r="I101" t="n">
+        <v>12619</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>25.19176452732123</v>
+      </c>
+      <c r="F102" t="n">
+        <v>14.91224329200674</v>
+      </c>
+      <c r="G102" t="n">
+        <v>17.70416617635522</v>
+      </c>
+      <c r="H102" t="n">
+        <v>43.9985795225255</v>
+      </c>
+      <c r="I102" t="n">
+        <v>12745</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>B0D2PK3CC1</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D103" t="n">
+        <v>5</v>
+      </c>
+      <c r="E103" t="n">
+        <v>13.88569407699882</v>
+      </c>
+      <c r="F103" t="n">
+        <v>6.378675411086537</v>
+      </c>
+      <c r="G103" t="n">
+        <v>6.782329983125268</v>
+      </c>
+      <c r="H103" t="n">
+        <v>21.05647168924557</v>
+      </c>
+      <c r="I103" t="n">
+        <v>12871</v>
       </c>
     </row>
   </sheetData>

--- a/prophet_feedback.xlsx
+++ b/prophet_feedback.xlsx
@@ -3391,7 +3391,7 @@
         <v>172.9575453687985</v>
       </c>
       <c r="I95" t="n">
-        <v>11863</v>
+        <v>11864</v>
       </c>
     </row>
     <row r="96">
@@ -3422,7 +3422,7 @@
         <v>139.9437386952342</v>
       </c>
       <c r="I96" t="n">
-        <v>11989</v>
+        <v>11990</v>
       </c>
     </row>
     <row r="97">
@@ -3453,7 +3453,7 @@
         <v>38.06162765831225</v>
       </c>
       <c r="I97" t="n">
-        <v>12115</v>
+        <v>12116</v>
       </c>
     </row>
     <row r="98">
@@ -3484,7 +3484,7 @@
         <v>5.431390245600108</v>
       </c>
       <c r="I98" t="n">
-        <v>12241</v>
+        <v>12242</v>
       </c>
     </row>
     <row r="99">
@@ -3515,7 +3515,7 @@
         <v>4.697073557013984</v>
       </c>
       <c r="I99" t="n">
-        <v>12367</v>
+        <v>12368</v>
       </c>
     </row>
     <row r="100">
@@ -3546,7 +3546,7 @@
         <v>8.540345426269361</v>
       </c>
       <c r="I100" t="n">
-        <v>12493</v>
+        <v>12494</v>
       </c>
     </row>
     <row r="101">
@@ -3577,7 +3577,7 @@
         <v>43.53375127415509</v>
       </c>
       <c r="I101" t="n">
-        <v>12619</v>
+        <v>12620</v>
       </c>
     </row>
     <row r="102">
@@ -3608,7 +3608,7 @@
         <v>43.9985795225255</v>
       </c>
       <c r="I102" t="n">
-        <v>12745</v>
+        <v>12746</v>
       </c>
     </row>
     <row r="103">
@@ -3639,7 +3639,7 @@
         <v>21.05647168924557</v>
       </c>
       <c r="I103" t="n">
-        <v>12871</v>
+        <v>12872</v>
       </c>
     </row>
   </sheetData>

--- a/prophet_feedback.xlsx
+++ b/prophet_feedback.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,29 +483,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B0C1ZZ57ZW</t>
+          <t>B09L9DY4L1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="D2" t="n">
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>1.346291201783626</v>
+        <v>2.622022120425379</v>
       </c>
       <c r="F2" t="n">
-        <v>1.6583123951777</v>
+        <v>3.3166247903554</v>
       </c>
       <c r="G2" t="n">
-        <v>2.23606797749979</v>
+        <v>1.089724735885168</v>
       </c>
       <c r="H2" t="n">
-        <v>7.407766195014527</v>
+        <v>4.763139720814412</v>
       </c>
       <c r="I2" t="n">
         <v>126</v>
@@ -514,29 +514,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
+          <t>B08KGVH7YC</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>32.10042834605171</v>
+        <v>26.83514486638744</v>
       </c>
       <c r="F3" t="n">
-        <v>31.92765259144493</v>
+        <v>25.54652618263391</v>
       </c>
       <c r="G3" t="n">
-        <v>41.59176601203657</v>
+        <v>51.66962357130154</v>
       </c>
       <c r="H3" t="n">
-        <v>65.45131778658089</v>
+        <v>115.7788840851388</v>
       </c>
       <c r="I3" t="n">
         <v>252</v>
@@ -545,11 +545,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B0D2V2FPS7</t>
+          <t>B09JZFT4SN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
         <v>0.05</v>
@@ -558,19 +558,3119 @@
         <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>6.025985396596975</v>
+        <v>0.75</v>
       </c>
       <c r="F4" t="n">
-        <v>3.913118960624632</v>
+        <v>1.224744871391589</v>
       </c>
       <c r="G4" t="n">
-        <v>1.837117307087384</v>
+        <v>3.307189138830738</v>
       </c>
       <c r="H4" t="n">
-        <v>8.5</v>
+        <v>6.837397165588672</v>
       </c>
       <c r="I4" t="n">
         <v>378</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B09JZGTYXJ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.414213562373095</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.82915619758885</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.410912690248239</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.736823830374104</v>
+      </c>
+      <c r="I5" t="n">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B07T6N8N56</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>28.96981187374195</v>
+      </c>
+      <c r="F7" t="n">
+        <v>23.36664289109585</v>
+      </c>
+      <c r="G7" t="n">
+        <v>34.412025514346</v>
+      </c>
+      <c r="H7" t="n">
+        <v>68.01837986897365</v>
+      </c>
+      <c r="I7" t="n">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B0BH6XND27</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>31.58915953297903</v>
+      </c>
+      <c r="F8" t="n">
+        <v>26.00480724789169</v>
+      </c>
+      <c r="G8" t="n">
+        <v>37.46915398030759</v>
+      </c>
+      <c r="H8" t="n">
+        <v>69.6993543729065</v>
+      </c>
+      <c r="I8" t="n">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.5612494995996</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.645751311064591</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7.441438033068608</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B087GFYBCW</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>B08LGKGBKT</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>65.71149062378664</v>
+      </c>
+      <c r="F11" t="n">
+        <v>55.98214000911362</v>
+      </c>
+      <c r="G11" t="n">
+        <v>47.6366455578056</v>
+      </c>
+      <c r="H11" t="n">
+        <v>46.13160521811484</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>B089FY7QT1</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.344772040064913</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4.069705149024927</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.785357107135713</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.795084971874737</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>B07GBM3M88</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.695582495781317</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.6123724356957945</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.322875655532295</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>214.7709535761296</v>
+      </c>
+      <c r="F14" t="n">
+        <v>162.978717935809</v>
+      </c>
+      <c r="G14" t="n">
+        <v>129.8508760078268</v>
+      </c>
+      <c r="H14" t="n">
+        <v>111.7332202167287</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>B07VNBC5PS</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.387482193696061</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9.617692030835672</v>
+      </c>
+      <c r="G15" t="n">
+        <v>16.21920158330859</v>
+      </c>
+      <c r="H15" t="n">
+        <v>27.03238798182654</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6.309714732061981</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7.167635593415725</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10.74127552947042</v>
+      </c>
+      <c r="H16" t="n">
+        <v>17.20646680756976</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>B083NN4MLZ</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B0BH9BBLHB</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.082207001484488</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.457737973711325</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.795831523312719</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B0BHTMXMRQ</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>19.4919855325208</v>
+      </c>
+      <c r="F19" t="n">
+        <v>15.97654530867046</v>
+      </c>
+      <c r="G19" t="n">
+        <v>17.75704085707976</v>
+      </c>
+      <c r="H19" t="n">
+        <v>29.70164136878634</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B07FWVJSHC</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.816084380618437</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.850438562747845</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5.942432162002357</v>
+      </c>
+      <c r="H20" t="n">
+        <v>12.04678380315676</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D21" t="n">
+        <v>15</v>
+      </c>
+      <c r="E21" t="n">
+        <v>30.34283276162593</v>
+      </c>
+      <c r="F21" t="n">
+        <v>16.56238207505189</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11.57583690279023</v>
+      </c>
+      <c r="H21" t="n">
+        <v>28.73477857927567</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>B07FW85VFT</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8.011710179481033</v>
+      </c>
+      <c r="F22" t="n">
+        <v>9.313968005098578</v>
+      </c>
+      <c r="G22" t="n">
+        <v>14.41353530539957</v>
+      </c>
+      <c r="H22" t="n">
+        <v>24.03903076249124</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>49.04780830985214</v>
+      </c>
+      <c r="F23" t="n">
+        <v>33.83138335924205</v>
+      </c>
+      <c r="G23" t="n">
+        <v>28.62800202598847</v>
+      </c>
+      <c r="H23" t="n">
+        <v>67.70708973216911</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B09J5TC4F8</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.089724735885168</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.10653744329409</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4.330127018922194</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>61.53200386790601</v>
+      </c>
+      <c r="F25" t="n">
+        <v>63.9100930996036</v>
+      </c>
+      <c r="G25" t="n">
+        <v>83.57481678113329</v>
+      </c>
+      <c r="H25" t="n">
+        <v>131.4096647891623</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>B079NYQQJJ</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.37268439080801</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.610076627227638</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5.09288719686584</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10.64483442802188</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>44.46206248027637</v>
+      </c>
+      <c r="F27" t="n">
+        <v>40.7377282135369</v>
+      </c>
+      <c r="G27" t="n">
+        <v>46.45562398676827</v>
+      </c>
+      <c r="H27" t="n">
+        <v>70.40774105167698</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>B089FWWN62</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>13.39076174084208</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9.013878188659973</v>
+      </c>
+      <c r="G28" t="n">
+        <v>11.11867797896854</v>
+      </c>
+      <c r="H28" t="n">
+        <v>22.66053838724932</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B0BH9F7DKS</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6.259992012774457</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5.379358697837503</v>
+      </c>
+      <c r="G29" t="n">
+        <v>6.590713163232034</v>
+      </c>
+      <c r="H29" t="n">
+        <v>22.63294059551255</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B07WL5MFXL</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.418698582794336</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.837117307087384</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.285593627966493</v>
+      </c>
+      <c r="H30" t="n">
+        <v>12.64663986994174</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B0BSB6MB15</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>192.7715616993337</v>
+      </c>
+      <c r="F31" t="n">
+        <v>166.451945017173</v>
+      </c>
+      <c r="G31" t="n">
+        <v>141.3703027513205</v>
+      </c>
+      <c r="H31" t="n">
+        <v>103.9822701233244</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>37.34216785351381</v>
+      </c>
+      <c r="F32" t="n">
+        <v>23.77630122622104</v>
+      </c>
+      <c r="G32" t="n">
+        <v>22.50833179069475</v>
+      </c>
+      <c r="H32" t="n">
+        <v>46.66636904667</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="F33" t="n">
+        <v>6.73145600891813</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5.232112384114087</v>
+      </c>
+      <c r="H33" t="n">
+        <v>20.39607805437114</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.3535533905932738</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.7905694150420949</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>B083GT6ZBX</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.82915619758885</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.9354143466934853</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>B08BR1XDX5</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.669269563007828</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4.337337893224368</v>
+      </c>
+      <c r="H36" t="n">
+        <v>8.620469824783333</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B0BH79FMW3</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.650268809434569</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3.132491021535417</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4.358898943540674</v>
+      </c>
+      <c r="H37" t="n">
+        <v>11.02837250005639</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>48.91766041012183</v>
+      </c>
+      <c r="F38" t="n">
+        <v>89.72318540934667</v>
+      </c>
+      <c r="G38" t="n">
+        <v>155.3508126789171</v>
+      </c>
+      <c r="H38" t="n">
+        <v>264.6416208762333</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4662</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B0BJ5SDGXK</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.060660171779821</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9354143466934853</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.089724735885168</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.677050983124842</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4788</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B0BSB4TYHV</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2.462214450449026</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3.807886552931954</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.6583123951777</v>
+      </c>
+      <c r="H40" t="n">
+        <v>11.20546741550748</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4914</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.3535533905932738</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>9.717895862788405</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6.432340165134304</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3.69120576505835</v>
+      </c>
+      <c r="H42" t="n">
+        <v>10.37123425634577</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5166</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B0BSNYN4XQ</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5.208166663999915</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3.288236609491476</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5.528336096873995</v>
+      </c>
+      <c r="H43" t="n">
+        <v>14.07124727947029</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5292</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B0BVWQ3BMJ</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4.183300132670378</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4.924428900898052</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.277608394786075</v>
+      </c>
+      <c r="H44" t="n">
+        <v>11.84008023621462</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5418</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B0BSP61QZC</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>24.48979379251691</v>
+      </c>
+      <c r="F45" t="n">
+        <v>14.24780684877501</v>
+      </c>
+      <c r="G45" t="n">
+        <v>10.64189832689638</v>
+      </c>
+      <c r="H45" t="n">
+        <v>28.88014023511659</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5544</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B083R7SWF5</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.620185174601965</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.299038105676658</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2.57390753524675</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4.9180788932265</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5670</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B09J6BWK2Z</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.561951712193752</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2.91547594742265</v>
+      </c>
+      <c r="G47" t="n">
+        <v>5.303300858899107</v>
+      </c>
+      <c r="H47" t="n">
+        <v>11.51900603350827</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5796</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>B0BTQ3SVFR</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>21.65207842217463</v>
+      </c>
+      <c r="F48" t="n">
+        <v>11.89800403429079</v>
+      </c>
+      <c r="G48" t="n">
+        <v>13.5531361684298</v>
+      </c>
+      <c r="H48" t="n">
+        <v>47.91268099365762</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5922</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>B0BTTZFQTP</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>37.83682069096186</v>
+      </c>
+      <c r="F49" t="n">
+        <v>49.58767487995379</v>
+      </c>
+      <c r="G49" t="n">
+        <v>73.96409601962293</v>
+      </c>
+      <c r="H49" t="n">
+        <v>118.5300594785981</v>
+      </c>
+      <c r="I49" t="n">
+        <v>6048</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>B0BVBXT6P1</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>6.87386354243376</v>
+      </c>
+      <c r="F50" t="n">
+        <v>12.54491929029438</v>
+      </c>
+      <c r="G50" t="n">
+        <v>21.93456176904385</v>
+      </c>
+      <c r="H50" t="n">
+        <v>37.41907935799597</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6174</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B083R7PHMX</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.030776406404415</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.322875655532295</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.785357107135713</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4.866980583482946</v>
+      </c>
+      <c r="I51" t="n">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>B083R826VW</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5.539629951540085</v>
+      </c>
+      <c r="F52" t="n">
+        <v>7.766112283504533</v>
+      </c>
+      <c r="G52" t="n">
+        <v>17.46603847470857</v>
+      </c>
+      <c r="H52" t="n">
+        <v>34.78685096412148</v>
+      </c>
+      <c r="I52" t="n">
+        <v>6426</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>B0BSB6MZ2L</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>19.37137062781052</v>
+      </c>
+      <c r="F53" t="n">
+        <v>14.0289878465982</v>
+      </c>
+      <c r="G53" t="n">
+        <v>8.015609770940699</v>
+      </c>
+      <c r="H53" t="n">
+        <v>12.35414910060584</v>
+      </c>
+      <c r="I53" t="n">
+        <v>6552</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B083R7T5P4</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2.046338192968113</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2.657536453183662</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.369306393762915</v>
+      </c>
+      <c r="H54" t="n">
+        <v>4.351723796382303</v>
+      </c>
+      <c r="I54" t="n">
+        <v>6678</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>B0BZQ43XXL</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.903943276465977</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.172603939955857</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.48746859276655</v>
+      </c>
+      <c r="H55" t="n">
+        <v>6.437196594791867</v>
+      </c>
+      <c r="I55" t="n">
+        <v>6804</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B09J64TBJG</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.391941090707505</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.48746859276655</v>
+      </c>
+      <c r="H56" t="n">
+        <v>4.650268809434569</v>
+      </c>
+      <c r="I56" t="n">
+        <v>6930</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B0BYBHW4SH</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>179.9645798483691</v>
+      </c>
+      <c r="F57" t="n">
+        <v>156.7818946817521</v>
+      </c>
+      <c r="G57" t="n">
+        <v>127.6508911053895</v>
+      </c>
+      <c r="H57" t="n">
+        <v>87.6659141285825</v>
+      </c>
+      <c r="I57" t="n">
+        <v>7056</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B0BZ54DR5L</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3</v>
+      </c>
+      <c r="D58" t="n">
+        <v>15</v>
+      </c>
+      <c r="E58" t="n">
+        <v>6.892024376045111</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5.4198708471697</v>
+      </c>
+      <c r="G58" t="n">
+        <v>7.327175444876422</v>
+      </c>
+      <c r="H58" t="n">
+        <v>15.4069789381306</v>
+      </c>
+      <c r="I58" t="n">
+        <v>7182</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B0C4CKCRYW</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5</v>
+      </c>
+      <c r="E59" t="n">
+        <v>9.490126448051154</v>
+      </c>
+      <c r="F59" t="n">
+        <v>7.893826701923472</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5.793315113128234</v>
+      </c>
+      <c r="H59" t="n">
+        <v>11.008519428152</v>
+      </c>
+      <c r="I59" t="n">
+        <v>7308</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B0BZQ1PWGJ</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>13.00240362394584</v>
+      </c>
+      <c r="F60" t="n">
+        <v>9.246621004453464</v>
+      </c>
+      <c r="G60" t="n">
+        <v>12.95424640803162</v>
+      </c>
+      <c r="H60" t="n">
+        <v>31.14582636566254</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7434</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>B0BZQ1TNW8</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5</v>
+      </c>
+      <c r="E61" t="n">
+        <v>27.7758888246623</v>
+      </c>
+      <c r="F61" t="n">
+        <v>22.45551157288562</v>
+      </c>
+      <c r="G61" t="n">
+        <v>34.27827300200522</v>
+      </c>
+      <c r="H61" t="n">
+        <v>69.85207584603339</v>
+      </c>
+      <c r="I61" t="n">
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2.783882181415011</v>
+      </c>
+      <c r="H62" t="n">
+        <v>4.527692569068709</v>
+      </c>
+      <c r="I62" t="n">
+        <v>7686</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>B0C4CKFV65</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>6.354132513569417</v>
+      </c>
+      <c r="F63" t="n">
+        <v>9.303897032964198</v>
+      </c>
+      <c r="G63" t="n">
+        <v>14.84082207965583</v>
+      </c>
+      <c r="H63" t="n">
+        <v>24.1026450830609</v>
+      </c>
+      <c r="I63" t="n">
+        <v>7812</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>B0BZ17BQ4Z</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" t="n">
+        <v>6.314665470157545</v>
+      </c>
+      <c r="F64" t="n">
+        <v>5.947688626685159</v>
+      </c>
+      <c r="G64" t="n">
+        <v>6.015604707757983</v>
+      </c>
+      <c r="H64" t="n">
+        <v>20.02030219552142</v>
+      </c>
+      <c r="I64" t="n">
+        <v>7938</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>B0C4CB8G8D</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5.606915373001451</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2.524876234590519</v>
+      </c>
+      <c r="G65" t="n">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="H65" t="n">
+        <v>17.5641680702503</v>
+      </c>
+      <c r="I65" t="n">
+        <v>8064</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" t="n">
+        <v>13.22875655532295</v>
+      </c>
+      <c r="F66" t="n">
+        <v>6.393355926272211</v>
+      </c>
+      <c r="G66" t="n">
+        <v>6.229967897188556</v>
+      </c>
+      <c r="H66" t="n">
+        <v>16.99264546796643</v>
+      </c>
+      <c r="I66" t="n">
+        <v>8190</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>B0C1ZZ57ZW</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C67" t="n">
+        <v>5</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.299038105676658</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.600781059358212</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2.318404623873926</v>
+      </c>
+      <c r="H67" t="n">
+        <v>8.007808689023483</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8316</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>B0CH92B3S2</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" t="n">
+        <v>25.50122546074992</v>
+      </c>
+      <c r="F68" t="n">
+        <v>16.01366603873079</v>
+      </c>
+      <c r="G68" t="n">
+        <v>15.17605021077619</v>
+      </c>
+      <c r="H68" t="n">
+        <v>35.0142828000232</v>
+      </c>
+      <c r="I68" t="n">
+        <v>8442</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>B083RW9KDM</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D69" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" t="n">
+        <v>21.34391013849149</v>
+      </c>
+      <c r="F69" t="n">
+        <v>17.26086614280987</v>
+      </c>
+      <c r="G69" t="n">
+        <v>10.91443997647154</v>
+      </c>
+      <c r="H69" t="n">
+        <v>6.94172168845741</v>
+      </c>
+      <c r="I69" t="n">
+        <v>8568</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>B083RW9TJF</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" t="n">
+        <v>19.17680891076511</v>
+      </c>
+      <c r="F70" t="n">
+        <v>12.27293770863358</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.662375826453062</v>
+      </c>
+      <c r="H70" t="n">
+        <v>13.62213272582528</v>
+      </c>
+      <c r="I70" t="n">
+        <v>8694</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>12.91559135308949</v>
+      </c>
+      <c r="F71" t="n">
+        <v>28.56024334630222</v>
+      </c>
+      <c r="G71" t="n">
+        <v>45.07355100277767</v>
+      </c>
+      <c r="H71" t="n">
+        <v>71.17715574536538</v>
+      </c>
+      <c r="I71" t="n">
+        <v>8820</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>B0CNR8Y29S</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D72" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" t="n">
+        <v>14.71818602953503</v>
+      </c>
+      <c r="F72" t="n">
+        <v>5.798706752371601</v>
+      </c>
+      <c r="G72" t="n">
+        <v>9.013878188659973</v>
+      </c>
+      <c r="H72" t="n">
+        <v>28.49451701643669</v>
+      </c>
+      <c r="I72" t="n">
+        <v>8946</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" t="n">
+        <v>47.16195500612756</v>
+      </c>
+      <c r="F73" t="n">
+        <v>55.34324710386986</v>
+      </c>
+      <c r="G73" t="n">
+        <v>78.94222570969228</v>
+      </c>
+      <c r="H73" t="n">
+        <v>121.6693778236743</v>
+      </c>
+      <c r="I73" t="n">
+        <v>9072</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>B0CKS6BMH7</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" t="n">
+        <v>17.4946420369209</v>
+      </c>
+      <c r="F74" t="n">
+        <v>13.93960185945065</v>
+      </c>
+      <c r="G74" t="n">
+        <v>7.862092596758194</v>
+      </c>
+      <c r="H74" t="n">
+        <v>19.2142525225417</v>
+      </c>
+      <c r="I74" t="n">
+        <v>9198</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>B083RVX2FQ</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>11.5974135047432</v>
+      </c>
+      <c r="F75" t="n">
+        <v>6.937218462755804</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2.883140648667699</v>
+      </c>
+      <c r="H75" t="n">
+        <v>9.852030247619016</v>
+      </c>
+      <c r="I75" t="n">
+        <v>9324</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5</v>
+      </c>
+      <c r="E76" t="n">
+        <v>217.4551677932718</v>
+      </c>
+      <c r="F76" t="n">
+        <v>182.8310353851337</v>
+      </c>
+      <c r="G76" t="n">
+        <v>148.9244775045392</v>
+      </c>
+      <c r="H76" t="n">
+        <v>103.1979287582847</v>
+      </c>
+      <c r="I76" t="n">
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>B0CCWLMK56</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.6393596310755</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.346291201783626</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.7905694150420949</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1.936491673103709</v>
+      </c>
+      <c r="I77" t="n">
+        <v>9576</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5</v>
+      </c>
+      <c r="E78" t="n">
+        <v>54.6168472176855</v>
+      </c>
+      <c r="F78" t="n">
+        <v>37.15592146616741</v>
+      </c>
+      <c r="G78" t="n">
+        <v>21.35269303858415</v>
+      </c>
+      <c r="H78" t="n">
+        <v>34.13758925290419</v>
+      </c>
+      <c r="I78" t="n">
+        <v>9702</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>B0CNR6L1DH</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>6.523994175349944</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3.553167600887974</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2.091650066335189</v>
+      </c>
+      <c r="H79" t="n">
+        <v>9.222933372848358</v>
+      </c>
+      <c r="I79" t="n">
+        <v>9828</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>B0D2V2FPS7</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5.338539126015656</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3.259601202601325</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2.449489742783178</v>
+      </c>
+      <c r="H80" t="n">
+        <v>10.49404593090768</v>
+      </c>
+      <c r="I80" t="n">
+        <v>9954</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B0D8WH9NG3</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D81" t="n">
+        <v>5</v>
+      </c>
+      <c r="E81" t="n">
+        <v>37.27180569814132</v>
+      </c>
+      <c r="F81" t="n">
+        <v>29.40238085597831</v>
+      </c>
+      <c r="G81" t="n">
+        <v>21.61885750912846</v>
+      </c>
+      <c r="H81" t="n">
+        <v>18.54049621773916</v>
+      </c>
+      <c r="I81" t="n">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5</v>
+      </c>
+      <c r="E82" t="n">
+        <v>252.1552101385177</v>
+      </c>
+      <c r="F82" t="n">
+        <v>193.8425585365608</v>
+      </c>
+      <c r="G82" t="n">
+        <v>173.6812813748217</v>
+      </c>
+      <c r="H82" t="n">
+        <v>265.8780265460085</v>
+      </c>
+      <c r="I82" t="n">
+        <v>10206</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>B0CTTY491F</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D83" t="n">
+        <v>5</v>
+      </c>
+      <c r="E83" t="n">
+        <v>9.762812094883317</v>
+      </c>
+      <c r="F83" t="n">
+        <v>7.428828979051813</v>
+      </c>
+      <c r="G83" t="n">
+        <v>7.403546447480424</v>
+      </c>
+      <c r="H83" t="n">
+        <v>25.74028943116219</v>
+      </c>
+      <c r="I83" t="n">
+        <v>10332</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>B0CTNYTX8Y</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.5612494995996</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2.29128784747792</v>
+      </c>
+      <c r="G84" t="n">
+        <v>3.807886552931954</v>
+      </c>
+      <c r="H84" t="n">
+        <v>6.294839156007086</v>
+      </c>
+      <c r="I84" t="n">
+        <v>10458</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2.680951323690902</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H85" t="n">
+        <v>5.55090082779363</v>
+      </c>
+      <c r="I85" t="n">
+        <v>10584</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>B0CTNXBRJV</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D86" t="n">
+        <v>5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4.663689526544408</v>
+      </c>
+      <c r="F86" t="n">
+        <v>9.826622003516773</v>
+      </c>
+      <c r="G86" t="n">
+        <v>18.76166303929372</v>
+      </c>
+      <c r="H86" t="n">
+        <v>34.03215391361528</v>
+      </c>
+      <c r="I86" t="n">
+        <v>10710</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B083SJLWL9</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>26.82000186428032</v>
+      </c>
+      <c r="F87" t="n">
+        <v>20.43893343596969</v>
+      </c>
+      <c r="G87" t="n">
+        <v>21.03568396796263</v>
+      </c>
+      <c r="H87" t="n">
+        <v>35.90003481892462</v>
+      </c>
+      <c r="I87" t="n">
+        <v>10836</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.7905694150420949</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.172603939955857</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2.610076627227638</v>
+      </c>
+      <c r="I88" t="n">
+        <v>10962</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>B0CTTXH95Q</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5</v>
+      </c>
+      <c r="E89" t="n">
+        <v>31.40660758502898</v>
+      </c>
+      <c r="F89" t="n">
+        <v>32.10918871600465</v>
+      </c>
+      <c r="G89" t="n">
+        <v>20.37461656080919</v>
+      </c>
+      <c r="H89" t="n">
+        <v>9.327379053088816</v>
+      </c>
+      <c r="I89" t="n">
+        <v>11088</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>47.97329986565444</v>
+      </c>
+      <c r="F90" t="n">
+        <v>70</v>
+      </c>
+      <c r="G90" t="n">
+        <v>104.8579396135553</v>
+      </c>
+      <c r="H90" t="n">
+        <v>168.651452706462</v>
+      </c>
+      <c r="I90" t="n">
+        <v>11214</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>B0CTTW2MVG</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3.464101615137754</v>
+      </c>
+      <c r="F91" t="n">
+        <v>4.220485754033533</v>
+      </c>
+      <c r="G91" t="n">
+        <v>5.634713834792322</v>
+      </c>
+      <c r="H91" t="n">
+        <v>8.261355820929152</v>
+      </c>
+      <c r="I91" t="n">
+        <v>11340</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>B0CTTWZCVK</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.520690632574555</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1.060660171779821</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3.657184709581948</v>
+      </c>
+      <c r="I92" t="n">
+        <v>11466</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>B0D54QJ9CJ</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D93" t="n">
+        <v>5</v>
+      </c>
+      <c r="E93" t="n">
+        <v>198.0411888976634</v>
+      </c>
+      <c r="F93" t="n">
+        <v>179.2437237394939</v>
+      </c>
+      <c r="G93" t="n">
+        <v>157.588665518812</v>
+      </c>
+      <c r="H93" t="n">
+        <v>123.6284756842047</v>
+      </c>
+      <c r="I93" t="n">
+        <v>11592</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>B0D33M6CB7</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5</v>
+      </c>
+      <c r="E94" t="n">
+        <v>16.35160542576783</v>
+      </c>
+      <c r="F94" t="n">
+        <v>11.71537451385998</v>
+      </c>
+      <c r="G94" t="n">
+        <v>14.06013869063887</v>
+      </c>
+      <c r="H94" t="n">
+        <v>27.17075633838705</v>
+      </c>
+      <c r="I94" t="n">
+        <v>11718</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5</v>
+      </c>
+      <c r="E95" t="n">
+        <v>6.614378277661476</v>
+      </c>
+      <c r="F95" t="n">
+        <v>11.49728228756692</v>
+      </c>
+      <c r="G95" t="n">
+        <v>18.75999733475461</v>
+      </c>
+      <c r="H95" t="n">
+        <v>30.9222816105151</v>
+      </c>
+      <c r="I95" t="n">
+        <v>11844</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5</v>
+      </c>
+      <c r="E96" t="n">
+        <v>76.38758079688085</v>
+      </c>
+      <c r="F96" t="n">
+        <v>88.72922292007296</v>
+      </c>
+      <c r="G96" t="n">
+        <v>119.3367085183767</v>
+      </c>
+      <c r="H96" t="n">
+        <v>185.6289982734379</v>
+      </c>
+      <c r="I96" t="n">
+        <v>11991</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" t="n">
+        <v>84.99963235214609</v>
+      </c>
+      <c r="F97" t="n">
+        <v>67.72970175631959</v>
+      </c>
+      <c r="G97" t="n">
+        <v>73.39831401333412</v>
+      </c>
+      <c r="H97" t="n">
+        <v>120.4421541653918</v>
+      </c>
+      <c r="I97" t="n">
+        <v>12117</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>B0DGVSW4FD</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D98" t="n">
+        <v>5</v>
+      </c>
+      <c r="E98" t="n">
+        <v>69.30277772210866</v>
+      </c>
+      <c r="F98" t="n">
+        <v>58.33255951867704</v>
+      </c>
+      <c r="G98" t="n">
+        <v>45.77731425061982</v>
+      </c>
+      <c r="H98" t="n">
+        <v>26.81534075860309</v>
+      </c>
+      <c r="I98" t="n">
+        <v>12243</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D99" t="n">
+        <v>5</v>
+      </c>
+      <c r="E99" t="n">
+        <v>21.18372016431486</v>
+      </c>
+      <c r="F99" t="n">
+        <v>15.93149396635482</v>
+      </c>
+      <c r="G99" t="n">
+        <v>8.944271909999159</v>
+      </c>
+      <c r="H99" t="n">
+        <v>9.110433579144299</v>
+      </c>
+      <c r="I99" t="n">
+        <v>12369</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B0CTTWH6TD</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C100" t="n">
+        <v>5</v>
+      </c>
+      <c r="D100" t="n">
+        <v>5</v>
+      </c>
+      <c r="E100" t="n">
+        <v>7.132671308843553</v>
+      </c>
+      <c r="F100" t="n">
+        <v>6.471089552772392</v>
+      </c>
+      <c r="G100" t="n">
+        <v>5.279678020485719</v>
+      </c>
+      <c r="H100" t="n">
+        <v>4.541475531146237</v>
+      </c>
+      <c r="I100" t="n">
+        <v>12495</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D101" t="n">
+        <v>5</v>
+      </c>
+      <c r="E101" t="n">
+        <v>49.43113897130026</v>
+      </c>
+      <c r="F101" t="n">
+        <v>37.62811448903599</v>
+      </c>
+      <c r="G101" t="n">
+        <v>22.54717277176897</v>
+      </c>
+      <c r="H101" t="n">
+        <v>13.46523300949523</v>
+      </c>
+      <c r="I101" t="n">
+        <v>12621</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>69.90708118638626</v>
+      </c>
+      <c r="F102" t="n">
+        <v>70.00312493024865</v>
+      </c>
+      <c r="G102" t="n">
+        <v>58.78934852505171</v>
+      </c>
+      <c r="H102" t="n">
+        <v>37.32793859832069</v>
+      </c>
+      <c r="I102" t="n">
+        <v>12747</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D103" t="n">
+        <v>5</v>
+      </c>
+      <c r="E103" t="n">
+        <v>27.45109287441941</v>
+      </c>
+      <c r="F103" t="n">
+        <v>14.46331566412073</v>
+      </c>
+      <c r="G103" t="n">
+        <v>13.35571038919308</v>
+      </c>
+      <c r="H103" t="n">
+        <v>39.14476337902683</v>
+      </c>
+      <c r="I103" t="n">
+        <v>12873</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>B0D2PK3CC1</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D104" t="n">
+        <v>15</v>
+      </c>
+      <c r="E104" t="n">
+        <v>17.20828288935302</v>
+      </c>
+      <c r="F104" t="n">
+        <v>11.32475165290612</v>
+      </c>
+      <c r="G104" t="n">
+        <v>11.75265927354316</v>
+      </c>
+      <c r="H104" t="n">
+        <v>24.9023091298779</v>
+      </c>
+      <c r="I104" t="n">
+        <v>12999</v>
       </c>
     </row>
   </sheetData>

--- a/prophet_feedback.xlsx
+++ b/prophet_feedback.xlsx
@@ -496,16 +496,16 @@
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>30.48155179776778</v>
+        <v>26.89446969174146</v>
       </c>
       <c r="F2" t="n">
-        <v>15.82324239844666</v>
+        <v>12.07269646764964</v>
       </c>
       <c r="G2" t="n">
-        <v>9.079509898667439</v>
+        <v>11.87960437051672</v>
       </c>
       <c r="H2" t="n">
-        <v>26.95830113341714</v>
+        <v>34.3092553110673</v>
       </c>
       <c r="I2" t="n">
         <v>126</v>
@@ -518,25 +518,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>0.05</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>35.12566725344873</v>
+        <v>11.46189338634765</v>
       </c>
       <c r="F3" t="n">
-        <v>39.81990708176</v>
+        <v>10.54158432115401</v>
       </c>
       <c r="G3" t="n">
-        <v>53.42693609032807</v>
+        <v>24.32848125140573</v>
       </c>
       <c r="H3" t="n">
-        <v>82.81341980621256</v>
+        <v>50.11611517266677</v>
       </c>
       <c r="I3" t="n">
         <v>252</v>

--- a/prophet_feedback.xlsx
+++ b/prophet_feedback.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,124 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>changepoint_prior_scale</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>seasonality_prior_scale</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>holidays_prior_scale</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE_Mean</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE_P70</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE_P80</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE_P90</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Total Tests</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>B08F7BHDLY</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>26.89446969174146</v>
-      </c>
-      <c r="F2" t="n">
-        <v>12.07269646764964</v>
-      </c>
-      <c r="G2" t="n">
-        <v>11.87960437051672</v>
-      </c>
-      <c r="H2" t="n">
-        <v>34.3092553110673</v>
-      </c>
-      <c r="I2" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>B08F7HPJ4F</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>11.46189338634765</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10.54158432115401</v>
-      </c>
-      <c r="G3" t="n">
-        <v>24.32848125140573</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50.11611517266677</v>
-      </c>
-      <c r="I3" t="n">
-        <v>252</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/prophet_feedback.xlsx
+++ b/prophet_feedback.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model Feedback" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Model Feedback" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
